--- a/B/itzgoing-WPS Office.xlsx
+++ b/B/itzgoing-WPS Office.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\cxd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\zero_day\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC7D384-2038-4806-9E63-620CA9C293C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0DDB9A-47AD-4BE0-A91F-5E8EC1D0EBC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7955" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22 nov 22" sheetId="1" r:id="rId1"/>
@@ -667,43 +667,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -846,13 +809,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -876,6 +832,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -911,6 +874,43 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1421,29 +1421,29 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7E07706C-FB15-40A3-9336-809D6DA8A4EC}" name="Table143568" displayName="Table143568" ref="A2:E19" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7E07706C-FB15-40A3-9336-809D6DA8A4EC}" name="Table143568" displayName="Table143568" ref="A2:E19" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A2:E19" xr:uid="{0B857FBF-C8DA-4BE7-83A1-D038E42765E6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7446A5EB-4C3A-49B5-9E19-669E9FC3347E}" name="DATE"/>
     <tableColumn id="2" xr3:uid="{44C91CD2-DEDB-4D1C-8FCE-1264A85B9B6F}" name="ITEM"/>
     <tableColumn id="3" xr3:uid="{2E093F03-2F08-4880-AD05-E8914170159D}" name="QUANTITY"/>
     <tableColumn id="4" xr3:uid="{44032675-4211-4DF6-A265-719C7D9C47DE}" name="AMOUNT"/>
-    <tableColumn id="5" xr3:uid="{8FB374B4-5400-4AAB-98F9-A0D0F444C972}" name="TOTAL" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{8FB374B4-5400-4AAB-98F9-A0D0F444C972}" name="TOTAL" dataDxfId="11" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0CA32926-4E99-4424-975A-1EE69DD9BC8B}" name="Table69" displayName="Table69" ref="G2:L19" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0CA32926-4E99-4424-975A-1EE69DD9BC8B}" name="Table69" displayName="Table69" ref="G2:L19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="G2:L19" xr:uid="{E83EB02B-3B60-45AA-A59B-4F1393586237}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F1CEE6EF-3853-44CE-A947-DB59F3138F9B}" name="DATE" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{B5B89E93-8DC9-4FC4-BF88-E279EF418471}" name="BUYER" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{391C6A0E-8B13-4C73-B36C-2C94A6CCAE51}" name="QUANTITY" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{15AB6CCA-B355-475E-859F-08A1DF070B30}" name="WEIGHT" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{248F5698-A238-45E2-94C7-86CC080849E2}" name="PRICE" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{0F36571C-BFAA-4F41-987C-2EF35EB78F8E}" name="TOTAL" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{F1CEE6EF-3853-44CE-A947-DB59F3138F9B}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B5B89E93-8DC9-4FC4-BF88-E279EF418471}" name="BUYER" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{391C6A0E-8B13-4C73-B36C-2C94A6CCAE51}" name="QUANTITY" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{15AB6CCA-B355-475E-859F-08A1DF070B30}" name="WEIGHT" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{248F5698-A238-45E2-94C7-86CC080849E2}" name="PRICE" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{0F36571C-BFAA-4F41-987C-2EF35EB78F8E}" name="TOTAL" dataDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3197,8 +3197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A0119C-3FC6-47F0-908C-8DD698C7B149}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -3288,9 +3288,7 @@
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9">
-        <v>10</v>
-      </c>
+      <c r="I3" s="9"/>
       <c r="J3" s="10">
         <v>10</v>
       </c>
@@ -3318,9 +3316,7 @@
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="10">
-        <v>4</v>
-      </c>
+      <c r="I4" s="10"/>
       <c r="J4" s="10">
         <v>4</v>
       </c>
@@ -3583,7 +3579,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="19">
         <f>SUM(I3:I17)</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J18" s="19">
         <f>SUM(J3:J17)</f>
@@ -3624,8 +3620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C568C89C-98A3-441A-AE1F-0DF6832B0B90}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -3717,12 +3713,14 @@
         <v>1.7</v>
       </c>
       <c r="J3" s="25">
-        <v>85</v>
-      </c>
-      <c r="K3" s="26"/>
+        <v>13</v>
+      </c>
+      <c r="K3" s="26">
+        <v>5500</v>
+      </c>
       <c r="L3" s="27">
         <f>(J3*K3)</f>
-        <v>0</v>
+        <v>71500</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.65">
@@ -3730,19 +3728,21 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="D4" s="11">
-        <v>13150</v>
+        <v>13400</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" ref="E4:E18" si="0">PRODUCT(C4:D4)</f>
-        <v>72325</v>
+        <v>100500</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="24"/>
       <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="J4" s="25">
+        <v>31</v>
+      </c>
       <c r="K4" s="26"/>
       <c r="L4" s="27">
         <f t="shared" ref="L4:L17" si="1">(J4*K4)</f>
@@ -3802,14 +3802,14 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="11">
         <v>14000</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="25"/>
@@ -3829,11 +3829,11 @@
         <v>1.5</v>
       </c>
       <c r="D8" s="11">
-        <v>14000</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>21000</v>
+        <v>1500</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="25"/>
@@ -4008,7 +4008,7 @@
     <row r="19" spans="5:12" ht="25.25" x14ac:dyDescent="0.65">
       <c r="E19" s="5">
         <f>SUM(E3:E18)</f>
-        <v>140775</v>
+        <v>135450</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="33"/>
@@ -4018,19 +4018,19 @@
       </c>
       <c r="J19" s="30">
         <f>SUM(J3:J18)</f>
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="31">
         <f>SUM(L3:L18)</f>
-        <v>0</v>
+        <v>71500</v>
       </c>
     </row>
     <row r="20" spans="5:12" ht="20.25" x14ac:dyDescent="0.65">
       <c r="E20" s="7"/>
       <c r="F20" s="21">
         <f>L19-E19</f>
-        <v>-140775</v>
+        <v>-63950</v>
       </c>
     </row>
     <row r="24" spans="5:12" x14ac:dyDescent="0.65">
@@ -4056,8 +4056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489CE00B-5C7D-43BD-86EB-DAC2927C5B69}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -4129,14 +4129,14 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D3" s="11">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="E3" s="7">
         <f>PRODUCT(C3:D3)</f>
-        <v>26650</v>
+        <v>27000</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="24"/>
@@ -4228,12 +4228,10 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="11">
-        <v>14000</v>
-      </c>
+      <c r="D7" s="11"/>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="25"/>
@@ -4428,7 +4426,7 @@
     <row r="19" spans="5:12" ht="25.25" x14ac:dyDescent="0.65">
       <c r="E19" s="5">
         <f>SUM(E3:E18)</f>
-        <v>58000</v>
+        <v>44350</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="33"/>
@@ -4449,11 +4447,11 @@
     <row r="20" spans="5:12" ht="20.25" x14ac:dyDescent="0.65">
       <c r="E20" s="7">
         <f>E19/C3</f>
-        <v>892.30769230769226</v>
+        <v>739.16666666666663</v>
       </c>
       <c r="F20" s="21">
         <f>L19-E19</f>
-        <v>-58000</v>
+        <v>-44350</v>
       </c>
     </row>
   </sheetData>

--- a/B/itzgoing-WPS Office.xlsx
+++ b/B/itzgoing-WPS Office.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\zero_day\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0DDB9A-47AD-4BE0-A91F-5E8EC1D0EBC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DB9056-2E66-4B00-8C96-78A5CE6E4FA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7955" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7956" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22 nov 22" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
   <si>
     <t>DATE</t>
   </si>
@@ -243,7 +243,7 @@
       <family val="5"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +259,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,7 +517,7 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,6 +633,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -649,7 +667,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="39">
     <dxf>
       <font>
         <b val="0"/>
@@ -1154,7 +1172,64 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1336,70 +1411,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32828D41-1C2B-4037-AFD8-3B358AB5B3E8}" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32828D41-1C2B-4037-AFD8-3B358AB5B3E8}" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="A1:E18" xr:uid="{0DA49046-BA98-491C-812D-36BA98DC6B3E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{525200BA-089B-436F-B3EE-40E2A02381EB}" name="DATE"/>
     <tableColumn id="2" xr3:uid="{4B13D8C3-9A4E-4F9B-947D-AC0BAB47F48C}" name="ITEM"/>
     <tableColumn id="3" xr3:uid="{2A91B028-C1C8-4DAE-85AD-DBE0D965752A}" name="QUANTITY"/>
     <tableColumn id="4" xr3:uid="{0A0717CC-89B4-44B2-A7C2-5B2B0D4293A6}" name="AMOUNT"/>
-    <tableColumn id="5" xr3:uid="{03904506-CB92-4DE6-BC6D-68EF2AF2FCB8}" name="TOTAL" dataDxfId="32" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{03904506-CB92-4DE6-BC6D-68EF2AF2FCB8}" name="TOTAL" dataDxfId="37" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F2E3C8B0-6753-433C-87D9-6F90E61D2E39}" name="Table14" displayName="Table14" ref="A1:E18" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F2E3C8B0-6753-433C-87D9-6F90E61D2E39}" name="Table14" displayName="Table14" ref="A1:E18" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="A1:E18" xr:uid="{55F0C602-EA2B-417B-A8CF-A7506DCFBA0D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9297B9BC-DA1D-4F3B-B8D9-236109551FB2}" name="DATE"/>
     <tableColumn id="2" xr3:uid="{E0897105-BD03-48FA-BC07-BDB98F5CD4EF}" name="ITEM"/>
     <tableColumn id="3" xr3:uid="{4B239615-7D83-4A08-AEF5-098E787BDD37}" name="QUANTITY"/>
     <tableColumn id="4" xr3:uid="{43AE393C-9109-40E2-96BF-EA03BD730635}" name="AMOUNT"/>
-    <tableColumn id="5" xr3:uid="{4DDA5099-C8CC-433B-A8F1-6BD39F1A6698}" name="TOTAL" dataDxfId="30" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{4DDA5099-C8CC-433B-A8F1-6BD39F1A6698}" name="TOTAL" dataDxfId="35" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04E8CE9B-F972-4D2A-BBD7-A4DA2006C51E}" name="Table143" displayName="Table143" ref="A1:E18" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04E8CE9B-F972-4D2A-BBD7-A4DA2006C51E}" name="Table143" displayName="Table143" ref="A1:E18" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="A1:E18" xr:uid="{D3179F9C-EC68-4C86-B46A-03A35F523B41}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B3F09B77-3057-458A-BE73-EA008428DB8C}" name="DATE"/>
     <tableColumn id="2" xr3:uid="{106956D3-CD8D-44C2-A4B6-0C9A0654DF97}" name="ITEM"/>
     <tableColumn id="3" xr3:uid="{34EA5D5E-0290-4422-9727-683E0DE92E68}" name="QUANTITY"/>
     <tableColumn id="4" xr3:uid="{127ED9A6-918F-4C03-A8C8-893EABC058FA}" name="AMOUNT"/>
-    <tableColumn id="5" xr3:uid="{405FBE5F-2B2A-4F64-9236-83A7FC5A391B}" name="TOTAL" dataDxfId="28" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{405FBE5F-2B2A-4F64-9236-83A7FC5A391B}" name="TOTAL" dataDxfId="33" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{98C29F74-2B4D-481D-9538-890A8A546785}" name="Table1435" displayName="Table1435" ref="A1:E18" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{98C29F74-2B4D-481D-9538-890A8A546785}" name="Table1435" displayName="Table1435" ref="A1:E18" totalsRowShown="0" headerRowDxfId="32">
   <autoFilter ref="A1:E18" xr:uid="{DB97B67B-B086-47CF-AF29-723662D1F041}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DE1F3780-C85F-4D89-AE34-AD36A2905711}" name="DATE"/>
     <tableColumn id="2" xr3:uid="{BADD8C48-BD6E-47D5-BCB5-E4B7EA8BEAE2}" name="ITEM"/>
     <tableColumn id="3" xr3:uid="{248E9588-C27F-4BEE-84D3-4CC3E631CB8D}" name="QUANTITY"/>
     <tableColumn id="4" xr3:uid="{316E246C-1A4B-4DDF-99DD-E4506BBAE547}" name="AMOUNT"/>
-    <tableColumn id="5" xr3:uid="{B61C6CFE-F9B6-4B24-9408-D999328281DB}" name="TOTAL" dataDxfId="26" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{B61C6CFE-F9B6-4B24-9408-D999328281DB}" name="TOTAL" dataDxfId="31" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{37B886FE-8561-48CE-9A7F-32ED97B48572}" name="Table14356" displayName="Table14356" ref="A2:E19" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{37B886FE-8561-48CE-9A7F-32ED97B48572}" name="Table14356" displayName="Table14356" ref="A2:E20" totalsRowCount="1" headerRowDxfId="30">
   <autoFilter ref="A2:E19" xr:uid="{DE330D17-D6CE-4F02-8236-703EFFA50F39}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7BBB255A-CFA5-4EE1-AA18-79A6E05BB7CD}" name="DATE"/>
-    <tableColumn id="2" xr3:uid="{BB4B363B-27FE-4696-83AD-2C8917C2BE68}" name="ITEM"/>
-    <tableColumn id="3" xr3:uid="{8338F136-5CF9-4383-8713-A4E57E8C9493}" name="QUANTITY"/>
-    <tableColumn id="4" xr3:uid="{9ACC634E-24DD-474A-806E-45B22DE04320}" name="AMOUNT"/>
-    <tableColumn id="5" xr3:uid="{09B840F9-6FD7-405E-9168-2AFD50F55E6D}" name="TOTAL" dataDxfId="24" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{7BBB255A-CFA5-4EE1-AA18-79A6E05BB7CD}" name="DATE" totalsRowDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{BB4B363B-27FE-4696-83AD-2C8917C2BE68}" name="ITEM" totalsRowDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{8338F136-5CF9-4383-8713-A4E57E8C9493}" name="QUANTITY" totalsRowDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{9ACC634E-24DD-474A-806E-45B22DE04320}" name="AMOUNT" totalsRowDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{09B840F9-6FD7-405E-9168-2AFD50F55E6D}" name="TOTAL" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Currency" totalsRowCellStyle="Currency">
+      <totalsRowFormula>F20/E19 *100</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1752,21 +1829,21 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.7890625" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7890625" customWidth="1"/>
+    <col min="1" max="1" width="9.80859375" customWidth="1"/>
+    <col min="2" max="2" width="18.76171875" customWidth="1"/>
+    <col min="3" max="3" width="10.80859375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.80859375" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="7.08203125" customWidth="1"/>
-    <col min="11" max="11" width="10.70703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.09375" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33.25" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:12" ht="33.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1782,16 +1859,16 @@
       <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1827,7 +1904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1861,7 +1938,7 @@
         <v>97452</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1895,7 +1972,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1929,7 +2006,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1963,7 +2040,7 @@
         <v>13300</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1997,7 +2074,7 @@
         <v>90180</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
@@ -2028,7 +2105,7 @@
         <v>35100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -2052,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
@@ -2076,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -2100,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -2124,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2139,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2154,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2169,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2184,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.65">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.45">
       <c r="E17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2199,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:12" ht="26" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="18" spans="5:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E18" s="5">
         <f>SUM(E2:E17)</f>
         <v>165035</v>
@@ -2220,7 +2297,7 @@
         <v>252032</v>
       </c>
     </row>
-    <row r="19" spans="5:12" ht="20.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="5:12" ht="19.8" x14ac:dyDescent="0.45">
       <c r="F19" s="21">
         <f>L18-E18</f>
         <v>86997</v>
@@ -2246,13 +2323,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="15.2890625" customWidth="1"/>
+    <col min="2" max="2" width="19.76171875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.65">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -2260,7 +2337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -2268,7 +2345,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.65">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -2276,7 +2353,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -2284,7 +2361,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.65">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
         <v>38</v>
       </c>
@@ -2292,7 +2369,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.65">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
         <v>39</v>
       </c>
@@ -2300,7 +2377,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.65">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>40</v>
       </c>
@@ -2308,7 +2385,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.65">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>41</v>
       </c>
@@ -2316,7 +2393,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.65">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E11" t="s">
         <v>42</v>
       </c>
@@ -2324,7 +2401,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.65">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C21">
         <f>SUM(C2:C20)</f>
         <v>7100</v>
@@ -2343,21 +2420,21 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.70703125" customWidth="1"/>
-    <col min="4" max="4" width="12.45703125" customWidth="1"/>
-    <col min="5" max="5" width="22.7890625" customWidth="1"/>
-    <col min="6" max="6" width="18.45703125" customWidth="1"/>
-    <col min="8" max="8" width="12.08203125" customWidth="1"/>
-    <col min="9" max="9" width="8.95703125" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.47265625" customWidth="1"/>
+    <col min="5" max="5" width="22.80859375" customWidth="1"/>
+    <col min="6" max="6" width="18.47265625" customWidth="1"/>
+    <col min="8" max="8" width="12.09375" customWidth="1"/>
+    <col min="9" max="9" width="8.94921875" customWidth="1"/>
+    <col min="10" max="10" width="7.80859375" customWidth="1"/>
+    <col min="11" max="11" width="12.37890625" customWidth="1"/>
+    <col min="12" max="12" width="19.80859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="43.5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:12" ht="42.3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2373,16 +2450,16 @@
       <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.65">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2418,7 +2495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2448,7 +2525,7 @@
         <v>94050</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
@@ -2478,7 +2555,7 @@
         <v>137016</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2508,7 +2585,7 @@
         <v>28050</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2538,7 +2615,7 @@
         <v>22880</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
@@ -2566,7 +2643,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -2594,7 +2671,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="2"/>
       <c r="D9" s="11"/>
       <c r="E9" s="7">
@@ -2615,7 +2692,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D10" s="11"/>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
@@ -2631,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D11" s="11"/>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
@@ -2647,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D12" s="11"/>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
@@ -2663,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2678,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2693,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2708,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2723,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.65">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.45">
       <c r="E17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2738,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:12" ht="26" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="18" spans="5:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E18" s="5">
         <f>SUM(E2:E17)</f>
         <v>247150</v>
@@ -2759,7 +2836,7 @@
         <v>308996</v>
       </c>
     </row>
-    <row r="19" spans="5:12" ht="20.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="5:12" ht="19.8" x14ac:dyDescent="0.45">
       <c r="E19" s="7"/>
       <c r="F19" s="21">
         <f>L18-E18</f>
@@ -2785,16 +2862,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="13.2890625" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="19.45703125" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="18.7890625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.234375" customWidth="1"/>
+    <col min="6" max="6" width="19.47265625" customWidth="1"/>
+    <col min="11" max="11" width="12.37890625" customWidth="1"/>
+    <col min="12" max="12" width="18.80859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:12" ht="28.2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2810,16 +2887,16 @@
       <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.65">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2855,7 +2932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2883,7 +2960,7 @@
         <v>28875</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
@@ -2909,7 +2986,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2937,7 +3014,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2965,7 +3042,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
@@ -2987,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -3009,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="2"/>
       <c r="C9">
         <v>1</v>
@@ -3031,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D10" s="11"/>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
@@ -3047,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D11" s="11"/>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
@@ -3063,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D12" s="11"/>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
@@ -3079,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3094,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3109,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3124,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3139,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.65">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.45">
       <c r="E17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3154,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:12" ht="26" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="18" spans="5:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E18" s="5">
         <f>SUM(E2:E17)</f>
         <v>57454</v>
@@ -3175,7 +3252,7 @@
         <v>77875</v>
       </c>
     </row>
-    <row r="19" spans="5:12" ht="20.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="5:12" ht="19.8" x14ac:dyDescent="0.45">
       <c r="E19" s="7"/>
       <c r="F19" s="21">
         <f>L18-E18</f>
@@ -3197,21 +3274,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A0119C-3FC6-47F0-908C-8DD698C7B149}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.2890625" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="19.45703125" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="18.7890625" customWidth="1"/>
+    <col min="1" max="1" width="9.6171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.234375" customWidth="1"/>
+    <col min="6" max="6" width="19.47265625" customWidth="1"/>
+    <col min="11" max="11" width="12.37890625" customWidth="1"/>
+    <col min="12" max="12" width="18.80859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:12" ht="28.2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3227,16 +3304,16 @@
       <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.65">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="22">
         <v>45210</v>
       </c>
@@ -3272,7 +3349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -3300,7 +3377,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
@@ -3328,7 +3405,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -3356,7 +3433,7 @@
         <v>77000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -3379,7 +3456,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
@@ -3402,7 +3479,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -3423,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
@@ -3447,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D10" s="11"/>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
@@ -3463,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D11" s="11"/>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
@@ -3479,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D12" s="11"/>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
@@ -3495,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3510,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3525,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3540,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3555,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.65">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.45">
       <c r="E17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3570,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:12" ht="26" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="18" spans="5:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E18" s="5">
         <f>SUM(E2:E17)</f>
         <v>123450</v>
@@ -3591,14 +3668,14 @@
         <v>211000</v>
       </c>
     </row>
-    <row r="19" spans="5:12" ht="20.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="5:12" ht="19.8" x14ac:dyDescent="0.45">
       <c r="E19" s="7"/>
       <c r="F19" s="21">
         <f>L18-E18</f>
         <v>87550</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.65">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F20" s="38">
         <f>((F19/E18)*100)</f>
         <v>70.91940056703119</v>
@@ -3620,42 +3697,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C568C89C-98A3-441A-AE1F-0DF6832B0B90}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.7890625" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="13.0390625" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="9.80859375" customWidth="1"/>
+    <col min="3" max="3" width="10.234375" customWidth="1"/>
+    <col min="4" max="4" width="13.046875" customWidth="1"/>
+    <col min="5" max="5" width="23.6171875" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.76171875" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.70703125" customWidth="1"/>
-    <col min="11" max="11" width="12.0390625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.046875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.25" x14ac:dyDescent="0.65">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="G1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-    </row>
-    <row r="2" spans="1:12" ht="24.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+    </row>
+    <row r="2" spans="1:12" ht="24.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3690,7 +3767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>47</v>
       </c>
@@ -3713,43 +3790,45 @@
         <v>1.7</v>
       </c>
       <c r="J3" s="25">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K3" s="26">
         <v>5500</v>
       </c>
       <c r="L3" s="27">
         <f>(J3*K3)</f>
-        <v>71500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.65">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4">
-        <v>7.5</v>
+        <v>7.75</v>
       </c>
       <c r="D4" s="11">
         <v>13400</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" ref="E4:E18" si="0">PRODUCT(C4:D4)</f>
-        <v>100500</v>
+        <v>103850</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="24"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25">
-        <v>31</v>
-      </c>
-      <c r="K4" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="K4" s="26">
+        <v>4200</v>
+      </c>
       <c r="L4" s="27">
         <f t="shared" ref="L4:L17" si="1">(J4*K4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.65">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
@@ -3766,14 +3845,18 @@
       <c r="G5" s="28"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
+      <c r="J5" s="25">
+        <v>3</v>
+      </c>
+      <c r="K5" s="26">
+        <v>0</v>
+      </c>
       <c r="L5" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
@@ -3797,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -3821,31 +3904,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8">
-        <v>1.5</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="7">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G8" s="28"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="26"/>
-      <c r="L8" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -3866,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
@@ -3885,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D11" s="11"/>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
@@ -3901,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D12" s="11"/>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
@@ -3917,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D13" s="11"/>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
@@ -3933,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3948,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3963,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3978,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3993,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4005,10 +4072,10 @@
       <c r="K18" s="26"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="5:12" ht="25.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:12" ht="25.2" x14ac:dyDescent="0.45">
       <c r="E19" s="5">
         <f>SUM(E3:E18)</f>
-        <v>135450</v>
+        <v>137300</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="33"/>
@@ -4018,22 +4085,29 @@
       </c>
       <c r="J19" s="30">
         <f>SUM(J3:J18)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="31">
         <f>SUM(L3:L18)</f>
-        <v>71500</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" ht="20.25" x14ac:dyDescent="0.65">
-      <c r="E20" s="7"/>
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40">
+        <f>F20/E19 *100</f>
+        <v>50.764748725418798</v>
+      </c>
       <c r="F20" s="21">
         <f>L19-E19</f>
-        <v>-63950</v>
-      </c>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.65">
+        <v>69700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J24" t="s">
         <v>46</v>
       </c>
@@ -4056,37 +4130,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489CE00B-5C7D-43BD-86EB-DAC2927C5B69}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="13.0390625" customWidth="1"/>
-    <col min="5" max="5" width="23.2890625" customWidth="1"/>
-    <col min="6" max="6" width="19.08203125" customWidth="1"/>
-    <col min="11" max="11" width="13.45703125" customWidth="1"/>
-    <col min="12" max="12" width="18.9140625" customWidth="1"/>
+    <col min="4" max="4" width="13.046875" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.09375" customWidth="1"/>
+    <col min="11" max="11" width="13.47265625" customWidth="1"/>
+    <col min="12" max="12" width="18.90234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.25" x14ac:dyDescent="0.65">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="G1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-    </row>
-    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.65">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+    </row>
+    <row r="2" spans="1:12" ht="28.2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4121,7 +4195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>45</v>
       </c>
@@ -4144,27 +4218,29 @@
         <v>1.7</v>
       </c>
       <c r="J3" s="25">
-        <v>106</v>
-      </c>
-      <c r="K3" s="26"/>
+        <v>1.3</v>
+      </c>
+      <c r="K3" s="26">
+        <v>2300</v>
+      </c>
       <c r="L3" s="27">
         <f>(J3*K3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.65">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="11">
         <v>14850</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" ref="E4:E18" si="0">PRODUCT(C4:D4)</f>
-        <v>14850</v>
+        <v>59400</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="24"/>
@@ -4176,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
@@ -4200,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
@@ -4224,14 +4300,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>14000</v>
+      </c>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="25"/>
@@ -4243,10 +4324,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="2"/>
       <c r="D8" s="11"/>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
@@ -4262,10 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D9" s="11"/>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
@@ -4281,13 +4357,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="2"/>
       <c r="D10" s="11"/>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
@@ -4303,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D11" s="11"/>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
@@ -4319,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D12" s="11"/>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
@@ -4335,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D13" s="11"/>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
@@ -4351,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4366,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4381,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4396,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.65">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.45">
       <c r="E17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4411,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.65">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.45">
       <c r="E18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4423,10 +4494,10 @@
       <c r="K18" s="26"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="5:12" ht="25.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="5:12" ht="25.2" x14ac:dyDescent="0.45">
       <c r="E19" s="5">
         <f>SUM(E3:E18)</f>
-        <v>44350</v>
+        <v>102900</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="33"/>
@@ -4436,22 +4507,22 @@
       </c>
       <c r="J19" s="30">
         <f>SUM(J3:J18)</f>
-        <v>106</v>
+        <v>1.3</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="31">
         <f>SUM(L3:L18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" ht="20.25" x14ac:dyDescent="0.65">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" ht="19.8" x14ac:dyDescent="0.45">
       <c r="E20" s="7">
         <f>E19/C3</f>
-        <v>739.16666666666663</v>
+        <v>1715</v>
       </c>
       <c r="F20" s="21">
         <f>L19-E19</f>
-        <v>-44350</v>
+        <v>-99910</v>
       </c>
     </row>
   </sheetData>

--- a/B/itzgoing-WPS Office.xlsx
+++ b/B/itzgoing-WPS Office.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\zero_day\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DB9056-2E66-4B00-8C96-78A5CE6E4FA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5AFF83-FC9F-43E2-8255-F432A21A0072}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7956" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4131,7 +4131,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -4326,10 +4326,15 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="2"/>
-      <c r="D8" s="11"/>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11">
+        <v>15300</v>
+      </c>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45900</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="25"/>
@@ -4497,7 +4502,7 @@
     <row r="19" spans="5:12" ht="25.2" x14ac:dyDescent="0.45">
       <c r="E19" s="5">
         <f>SUM(E3:E18)</f>
-        <v>102900</v>
+        <v>148800</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="33"/>
@@ -4518,11 +4523,11 @@
     <row r="20" spans="5:12" ht="19.8" x14ac:dyDescent="0.45">
       <c r="E20" s="7">
         <f>E19/C3</f>
-        <v>1715</v>
+        <v>2480</v>
       </c>
       <c r="F20" s="21">
         <f>L19-E19</f>
-        <v>-99910</v>
+        <v>-145810</v>
       </c>
     </row>
   </sheetData>

--- a/B/itzgoing-WPS Office.xlsx
+++ b/B/itzgoing-WPS Office.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\zero_day\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5AFF83-FC9F-43E2-8255-F432A21A0072}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3861B5-84E6-40E0-97DD-431221F3C216}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7956" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7956" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22 nov 22" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="10 NOV 2023" sheetId="5" r:id="rId5"/>
     <sheet name="30 NOV 2023" sheetId="6" r:id="rId6"/>
     <sheet name="26 DEC 2023" sheetId="7" r:id="rId7"/>
+    <sheet name="5 FEB 2023" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="49">
   <si>
     <t>DATE</t>
   </si>
@@ -170,6 +171,9 @@
   </si>
   <si>
     <t>30/11/2023</t>
+  </si>
+  <si>
+    <t>tfare</t>
   </si>
 </sst>
 </file>
@@ -517,7 +521,7 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,6 +643,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -667,7 +698,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="57">
     <dxf>
       <font>
         <b val="0"/>
@@ -913,6 +944,21 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -929,6 +975,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1172,6 +1219,268 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$₦-466]\ * #,##0.00_-;\-[$₦-466]\ * #,##0.00_-;_-[$₦-466]\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1411,70 +1720,85 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32828D41-1C2B-4037-AFD8-3B358AB5B3E8}" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32828D41-1C2B-4037-AFD8-3B358AB5B3E8}" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0" headerRowDxfId="56">
   <autoFilter ref="A1:E18" xr:uid="{0DA49046-BA98-491C-812D-36BA98DC6B3E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{525200BA-089B-436F-B3EE-40E2A02381EB}" name="DATE"/>
     <tableColumn id="2" xr3:uid="{4B13D8C3-9A4E-4F9B-947D-AC0BAB47F48C}" name="ITEM"/>
     <tableColumn id="3" xr3:uid="{2A91B028-C1C8-4DAE-85AD-DBE0D965752A}" name="QUANTITY"/>
     <tableColumn id="4" xr3:uid="{0A0717CC-89B4-44B2-A7C2-5B2B0D4293A6}" name="AMOUNT"/>
-    <tableColumn id="5" xr3:uid="{03904506-CB92-4DE6-BC6D-68EF2AF2FCB8}" name="TOTAL" dataDxfId="37" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{03904506-CB92-4DE6-BC6D-68EF2AF2FCB8}" name="TOTAL" dataDxfId="55" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{972B87F8-08DE-42CE-B6EE-F9CC3000B39F}" name="Table6911" displayName="Table6911" ref="G2:L19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="G2:L19" xr:uid="{F2C44FDE-4A19-46D1-9037-BD7401012386}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{62D3BE1E-B2F3-4C84-8D8B-61049D765747}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{34C695C3-27FE-40B3-A88F-C4F5D73CE93A}" name="BUYER" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{61D493C9-2D2C-491E-8FC9-FB8BAF5261D5}" name="QUANTITY" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{03B7775B-1680-479A-95A9-8B2E43A9D4A2}" name="WEIGHT" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{5CB8D670-8BAC-48DC-81D9-97676E689543}" name="PRICE" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{11785D43-A212-4ACC-A3FF-334E2A99B630}" name="TOTAL" dataDxfId="0" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F2E3C8B0-6753-433C-87D9-6F90E61D2E39}" name="Table14" displayName="Table14" ref="A1:E18" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F2E3C8B0-6753-433C-87D9-6F90E61D2E39}" name="Table14" displayName="Table14" ref="A1:E18" totalsRowShown="0" headerRowDxfId="54">
   <autoFilter ref="A1:E18" xr:uid="{55F0C602-EA2B-417B-A8CF-A7506DCFBA0D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9297B9BC-DA1D-4F3B-B8D9-236109551FB2}" name="DATE"/>
     <tableColumn id="2" xr3:uid="{E0897105-BD03-48FA-BC07-BDB98F5CD4EF}" name="ITEM"/>
     <tableColumn id="3" xr3:uid="{4B239615-7D83-4A08-AEF5-098E787BDD37}" name="QUANTITY"/>
     <tableColumn id="4" xr3:uid="{43AE393C-9109-40E2-96BF-EA03BD730635}" name="AMOUNT"/>
-    <tableColumn id="5" xr3:uid="{4DDA5099-C8CC-433B-A8F1-6BD39F1A6698}" name="TOTAL" dataDxfId="35" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{4DDA5099-C8CC-433B-A8F1-6BD39F1A6698}" name="TOTAL" dataDxfId="53" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04E8CE9B-F972-4D2A-BBD7-A4DA2006C51E}" name="Table143" displayName="Table143" ref="A1:E18" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04E8CE9B-F972-4D2A-BBD7-A4DA2006C51E}" name="Table143" displayName="Table143" ref="A1:E18" totalsRowShown="0" headerRowDxfId="52">
   <autoFilter ref="A1:E18" xr:uid="{D3179F9C-EC68-4C86-B46A-03A35F523B41}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B3F09B77-3057-458A-BE73-EA008428DB8C}" name="DATE"/>
     <tableColumn id="2" xr3:uid="{106956D3-CD8D-44C2-A4B6-0C9A0654DF97}" name="ITEM"/>
     <tableColumn id="3" xr3:uid="{34EA5D5E-0290-4422-9727-683E0DE92E68}" name="QUANTITY"/>
     <tableColumn id="4" xr3:uid="{127ED9A6-918F-4C03-A8C8-893EABC058FA}" name="AMOUNT"/>
-    <tableColumn id="5" xr3:uid="{405FBE5F-2B2A-4F64-9236-83A7FC5A391B}" name="TOTAL" dataDxfId="33" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{405FBE5F-2B2A-4F64-9236-83A7FC5A391B}" name="TOTAL" dataDxfId="51" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{98C29F74-2B4D-481D-9538-890A8A546785}" name="Table1435" displayName="Table1435" ref="A1:E18" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{98C29F74-2B4D-481D-9538-890A8A546785}" name="Table1435" displayName="Table1435" ref="A1:E18" totalsRowShown="0" headerRowDxfId="50">
   <autoFilter ref="A1:E18" xr:uid="{DB97B67B-B086-47CF-AF29-723662D1F041}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DE1F3780-C85F-4D89-AE34-AD36A2905711}" name="DATE"/>
     <tableColumn id="2" xr3:uid="{BADD8C48-BD6E-47D5-BCB5-E4B7EA8BEAE2}" name="ITEM"/>
     <tableColumn id="3" xr3:uid="{248E9588-C27F-4BEE-84D3-4CC3E631CB8D}" name="QUANTITY"/>
     <tableColumn id="4" xr3:uid="{316E246C-1A4B-4DDF-99DD-E4506BBAE547}" name="AMOUNT"/>
-    <tableColumn id="5" xr3:uid="{B61C6CFE-F9B6-4B24-9408-D999328281DB}" name="TOTAL" dataDxfId="31" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{B61C6CFE-F9B6-4B24-9408-D999328281DB}" name="TOTAL" dataDxfId="49" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{37B886FE-8561-48CE-9A7F-32ED97B48572}" name="Table14356" displayName="Table14356" ref="A2:E20" totalsRowCount="1" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{37B886FE-8561-48CE-9A7F-32ED97B48572}" name="Table14356" displayName="Table14356" ref="A2:E20" totalsRowCount="1" headerRowDxfId="48">
   <autoFilter ref="A2:E19" xr:uid="{DE330D17-D6CE-4F02-8236-703EFFA50F39}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7BBB255A-CFA5-4EE1-AA18-79A6E05BB7CD}" name="DATE" totalsRowDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{BB4B363B-27FE-4696-83AD-2C8917C2BE68}" name="ITEM" totalsRowDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{8338F136-5CF9-4383-8713-A4E57E8C9493}" name="QUANTITY" totalsRowDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{9ACC634E-24DD-474A-806E-45B22DE04320}" name="AMOUNT" totalsRowDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{09B840F9-6FD7-405E-9168-2AFD50F55E6D}" name="TOTAL" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Currency" totalsRowCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{7BBB255A-CFA5-4EE1-AA18-79A6E05BB7CD}" name="DATE" totalsRowDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{BB4B363B-27FE-4696-83AD-2C8917C2BE68}" name="ITEM" totalsRowDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{8338F136-5CF9-4383-8713-A4E57E8C9493}" name="QUANTITY" totalsRowDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{9ACC634E-24DD-474A-806E-45B22DE04320}" name="AMOUNT" totalsRowDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{09B840F9-6FD7-405E-9168-2AFD50F55E6D}" name="TOTAL" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Currency" totalsRowCellStyle="Currency">
       <totalsRowFormula>F20/E19 *100</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1483,46 +1807,60 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3942A4A7-7B93-4431-AC5B-B4EC52A1B9FE}" name="Table6" displayName="Table6" ref="G2:L19" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3942A4A7-7B93-4431-AC5B-B4EC52A1B9FE}" name="Table6" displayName="Table6" ref="G2:L19" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <autoFilter ref="G2:L19" xr:uid="{A906474C-0585-43F8-ABD4-8143C7C262EC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{56628592-9640-4DEA-906C-7196A0325A7B}" name="DATE" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{35072D5B-6FF7-4A5B-B9A8-A870DDB43822}" name="BUYER" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{B68C5305-1C8C-483E-8BED-DECA128BD566}" name="QUANTITY" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{C9886B91-DE6C-481D-ACA4-A377FFFFFA4A}" name="WEIGHT" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{DB8366C3-25C2-41CE-A71A-A0DA7B666E41}" name="PRICE" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{BC97CDDA-429A-47A7-9A86-F1A1302C050F}" name="TOTAL" dataDxfId="13" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{56628592-9640-4DEA-906C-7196A0325A7B}" name="DATE" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{35072D5B-6FF7-4A5B-B9A8-A870DDB43822}" name="BUYER" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{B68C5305-1C8C-483E-8BED-DECA128BD566}" name="QUANTITY" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{C9886B91-DE6C-481D-ACA4-A377FFFFFA4A}" name="WEIGHT" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{DB8366C3-25C2-41CE-A71A-A0DA7B666E41}" name="PRICE" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{BC97CDDA-429A-47A7-9A86-F1A1302C050F}" name="TOTAL" dataDxfId="31" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7E07706C-FB15-40A3-9336-809D6DA8A4EC}" name="Table143568" displayName="Table143568" ref="A2:E19" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7E07706C-FB15-40A3-9336-809D6DA8A4EC}" name="Table143568" displayName="Table143568" ref="A2:E19" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A2:E19" xr:uid="{0B857FBF-C8DA-4BE7-83A1-D038E42765E6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7446A5EB-4C3A-49B5-9E19-669E9FC3347E}" name="DATE"/>
     <tableColumn id="2" xr3:uid="{44C91CD2-DEDB-4D1C-8FCE-1264A85B9B6F}" name="ITEM"/>
     <tableColumn id="3" xr3:uid="{2E093F03-2F08-4880-AD05-E8914170159D}" name="QUANTITY"/>
     <tableColumn id="4" xr3:uid="{44032675-4211-4DF6-A265-719C7D9C47DE}" name="AMOUNT"/>
-    <tableColumn id="5" xr3:uid="{8FB374B4-5400-4AAB-98F9-A0D0F444C972}" name="TOTAL" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{8FB374B4-5400-4AAB-98F9-A0D0F444C972}" name="TOTAL" dataDxfId="29" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0CA32926-4E99-4424-975A-1EE69DD9BC8B}" name="Table69" displayName="Table69" ref="G2:L19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0CA32926-4E99-4424-975A-1EE69DD9BC8B}" name="Table69" displayName="Table69" ref="G2:L19" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="G2:L19" xr:uid="{E83EB02B-3B60-45AA-A59B-4F1393586237}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F1CEE6EF-3853-44CE-A947-DB59F3138F9B}" name="DATE" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{B5B89E93-8DC9-4FC4-BF88-E279EF418471}" name="BUYER" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{391C6A0E-8B13-4C73-B36C-2C94A6CCAE51}" name="QUANTITY" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{15AB6CCA-B355-475E-859F-08A1DF070B30}" name="WEIGHT" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{248F5698-A238-45E2-94C7-86CC080849E2}" name="PRICE" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0F36571C-BFAA-4F41-987C-2EF35EB78F8E}" name="TOTAL" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{F1CEE6EF-3853-44CE-A947-DB59F3138F9B}" name="DATE" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{B5B89E93-8DC9-4FC4-BF88-E279EF418471}" name="BUYER" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{391C6A0E-8B13-4C73-B36C-2C94A6CCAE51}" name="QUANTITY" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{15AB6CCA-B355-475E-859F-08A1DF070B30}" name="WEIGHT" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{248F5698-A238-45E2-94C7-86CC080849E2}" name="PRICE" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{0F36571C-BFAA-4F41-987C-2EF35EB78F8E}" name="TOTAL" dataDxfId="18" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A1061985-5B74-4BB6-9C32-4A2C3BFD782F}" name="Table14356810" displayName="Table14356810" ref="A2:E19" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A2:E19" xr:uid="{17580A9C-AD3E-418E-B70C-797AC8206200}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B1C20895-1435-4075-A836-42141C6E1358}" name="DATE" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{8EF771A5-96F3-4EF7-B005-A075EB5D4F95}" name="ITEM" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{6846B033-DCD4-464E-9563-A379A099F912}" name="QUANTITY" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{A98A2236-DB21-474F-B11C-209A65722193}" name="AMOUNT" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{DAC30006-1F7E-4841-A1AA-AE0949D2DDC9}" name="TOTAL" dataDxfId="11" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1859,14 +2197,14 @@
       <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -2450,14 +2788,14 @@
       <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -2887,14 +3225,14 @@
       <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -3304,14 +3642,14 @@
       <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="22">
@@ -3716,21 +4054,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="G1" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="1:12" ht="24.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -4130,8 +4468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489CE00B-5C7D-43BD-86EB-DAC2927C5B69}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -4144,21 +4482,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="G1" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="1:12" ht="28.2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -4203,29 +4541,29 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D3" s="11">
         <v>450</v>
       </c>
       <c r="E3" s="7">
         <f>PRODUCT(C3:D3)</f>
-        <v>27000</v>
+        <v>22500</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24">
-        <v>1.7</v>
+        <v>23</v>
       </c>
       <c r="J3" s="25">
-        <v>1.3</v>
+        <v>46.5</v>
       </c>
       <c r="K3" s="26">
         <v>2300</v>
       </c>
       <c r="L3" s="27">
         <f>(J3*K3)</f>
-        <v>2990</v>
+        <v>106950</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -4244,12 +4582,18 @@
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26"/>
+      <c r="I4" s="25">
+        <v>10</v>
+      </c>
+      <c r="J4" s="25">
+        <v>20</v>
+      </c>
+      <c r="K4" s="26">
+        <v>2750</v>
+      </c>
       <c r="L4" s="27">
         <f t="shared" ref="L4:L17" si="1">(J4*K4)</f>
-        <v>0</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -4268,12 +4612,18 @@
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
+      <c r="I5" s="25">
+        <v>11</v>
+      </c>
+      <c r="J5" s="25">
+        <v>23.5</v>
+      </c>
+      <c r="K5" s="26">
+        <v>2300</v>
+      </c>
       <c r="L5" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>54050</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -4284,6 +4634,448 @@
         <v>1</v>
       </c>
       <c r="D6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25">
+        <v>5</v>
+      </c>
+      <c r="J6" s="25">
+        <v>10</v>
+      </c>
+      <c r="K6" s="26">
+        <v>3000</v>
+      </c>
+      <c r="L6" s="27">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>14000</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="2"/>
+      <c r="C8">
+        <v>3.5</v>
+      </c>
+      <c r="D8" s="11">
+        <v>15300</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>53550</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="2"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D11" s="11"/>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D12" s="11"/>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D13" s="11"/>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="5:12" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="E19" s="5">
+        <f>SUM(E3:E18)</f>
+        <v>156950</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="30">
+        <f>SUM(I3:I18)</f>
+        <v>49</v>
+      </c>
+      <c r="J19" s="30">
+        <f>SUM(J3:J18)</f>
+        <v>100</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="31">
+        <f>SUM(L3:L18)</f>
+        <v>246000</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="E20" s="7">
+        <f>E19/C3</f>
+        <v>3139</v>
+      </c>
+      <c r="F20" s="21">
+        <f>L19-E19</f>
+        <v>89050</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7E0C7E-8651-4EFA-98FC-246B2B283C06}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.37890625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.76171875" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5234375" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.94921875" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.76171875" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.76171875" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="41" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.76171875" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="G1" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="43">
+        <v>45048</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="41">
+        <v>50</v>
+      </c>
+      <c r="D3" s="44">
+        <v>770</v>
+      </c>
+      <c r="E3" s="7">
+        <f>PRODUCT(C3:D3)</f>
+        <v>38500</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24">
+        <v>23</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26">
+        <v>2300</v>
+      </c>
+      <c r="L3" s="27">
+        <f>(J3*K3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="41">
+        <v>8</v>
+      </c>
+      <c r="D4" s="44">
+        <v>16000</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E18" si="0">PRODUCT(C4:D4)</f>
+        <v>128000</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25">
+        <v>10</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26">
+        <v>2750</v>
+      </c>
+      <c r="L4" s="27">
+        <f t="shared" ref="L4:L17" si="1">(J4*K4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1</v>
+      </c>
+      <c r="D5" s="44">
+        <v>1500</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25">
+        <v>16</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26">
+        <v>2200</v>
+      </c>
+      <c r="L5" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="41">
+        <v>1</v>
+      </c>
+      <c r="D6" s="44">
         <v>1000</v>
       </c>
       <c r="E6" s="7">
@@ -4304,15 +5096,10 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11">
-        <v>14000</v>
-      </c>
+      <c r="D7" s="44"/>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="25"/>
@@ -4326,15 +5113,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="2"/>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="11">
-        <v>15300</v>
-      </c>
+      <c r="D8" s="44"/>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>45900</v>
+        <v>0</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="25"/>
@@ -4347,7 +5129,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="D9" s="11"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4364,7 +5146,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="2"/>
-      <c r="D10" s="11"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4380,7 +5162,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="D11" s="11"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4396,7 +5178,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="D12" s="11"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4412,7 +5194,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="D13" s="11"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4492,8 +5274,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="26"/>
@@ -4502,32 +5284,32 @@
     <row r="19" spans="5:12" ht="25.2" x14ac:dyDescent="0.45">
       <c r="E19" s="5">
         <f>SUM(E3:E18)</f>
-        <v>148800</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="30">
+        <v>169000</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="46">
         <f>SUM(I3:I18)</f>
-        <v>1.7</v>
-      </c>
-      <c r="J19" s="30">
+        <v>49</v>
+      </c>
+      <c r="J19" s="46">
         <f>SUM(J3:J18)</f>
-        <v>1.3</v>
-      </c>
-      <c r="K19" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="46"/>
       <c r="L19" s="31">
         <f>SUM(L3:L18)</f>
-        <v>2990</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="5:12" ht="19.8" x14ac:dyDescent="0.45">
       <c r="E20" s="7">
         <f>E19/C3</f>
-        <v>2480</v>
-      </c>
-      <c r="F20" s="21">
+        <v>3380</v>
+      </c>
+      <c r="F20" s="49">
         <f>L19-E19</f>
-        <v>-145810</v>
+        <v>-169000</v>
       </c>
     </row>
   </sheetData>

--- a/B/itzgoing-WPS Office.xlsx
+++ b/B/itzgoing-WPS Office.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\zero_day\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3861B5-84E6-40E0-97DD-431221F3C216}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839BDB6F-9A45-4204-887F-541B7E61F098}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7956" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7956" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22 nov 22" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,19 @@
     <sheet name="10 NOV 2023" sheetId="5" r:id="rId5"/>
     <sheet name="30 NOV 2023" sheetId="6" r:id="rId6"/>
     <sheet name="26 DEC 2023" sheetId="7" r:id="rId7"/>
-    <sheet name="5 FEB 2023" sheetId="8" r:id="rId8"/>
+    <sheet name="5 FEB 2024" sheetId="8" r:id="rId8"/>
+    <sheet name="15 MAR 2024" sheetId="9" r:id="rId9"/>
+    <sheet name="4 APR 2024" sheetId="10" r:id="rId10"/>
+    <sheet name="25 APR 2024" sheetId="12" r:id="rId11"/>
+    <sheet name="7 MAY 2024" sheetId="11" r:id="rId12"/>
+    <sheet name="28 MAY 2024" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="66">
   <si>
     <t>DATE</t>
   </si>
@@ -175,6 +180,57 @@
   <si>
     <t>tfare</t>
   </si>
+  <si>
+    <t>15/3/2024</t>
+  </si>
+  <si>
+    <t>Bro</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Balance from capital</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>nails</t>
+  </si>
+  <si>
+    <t>roofing sheet</t>
+  </si>
+  <si>
+    <t>cement</t>
+  </si>
+  <si>
+    <t>wiring</t>
+  </si>
+  <si>
+    <t>bricklayer workmanship</t>
+  </si>
+  <si>
+    <t>carpenter workmanship</t>
+  </si>
+  <si>
+    <t>tapolin</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>Cage Repair Expenses</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -185,7 +241,7 @@
     <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$₦-466]\ * #,##0.00_-;\-[$₦-466]\ * #,##0.00_-;_-[$₦-466]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -246,8 +302,20 @@
       <name val="Algerian"/>
       <family val="5"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +343,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +595,7 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -672,6 +746,15 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -693,12 +776,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="147">
     <dxf>
       <font>
         <b val="0"/>
@@ -1222,6 +1308,21 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1238,6 +1339,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1481,13 +1583,266 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$₦-466]\ * #,##0.00_-;\-[$₦-466]\ * #,##0.00_-;_-[$₦-466]\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1509,36 +1864,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1557,6 +1895,232 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$₦-466]\ * #,##0.00_-;\-[$₦-466]\ * #,##0.00_-;_-[$₦-466]\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1578,6 +2142,21 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1594,6 +2173,232 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$₦-466]\ * #,##0.00_-;\-[$₦-466]\ * #,##0.00_-;_-[$₦-466]\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1615,6 +2420,21 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1631,6 +2451,232 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$₦-466]\ * #,##0.00_-;\-[$₦-466]\ * #,##0.00_-;_-[$₦-466]\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1686,7 +2732,178 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$₦-466]\ * #,##0.00_-;\-[$₦-466]\ * #,##0.00_-;_-[$₦-466]\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1705,6 +2922,265 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1720,85 +3196,230 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32828D41-1C2B-4037-AFD8-3B358AB5B3E8}" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0" headerRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32828D41-1C2B-4037-AFD8-3B358AB5B3E8}" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0" headerRowDxfId="146">
   <autoFilter ref="A1:E18" xr:uid="{0DA49046-BA98-491C-812D-36BA98DC6B3E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{525200BA-089B-436F-B3EE-40E2A02381EB}" name="DATE"/>
     <tableColumn id="2" xr3:uid="{4B13D8C3-9A4E-4F9B-947D-AC0BAB47F48C}" name="ITEM"/>
     <tableColumn id="3" xr3:uid="{2A91B028-C1C8-4DAE-85AD-DBE0D965752A}" name="QUANTITY"/>
     <tableColumn id="4" xr3:uid="{0A0717CC-89B4-44B2-A7C2-5B2B0D4293A6}" name="AMOUNT"/>
-    <tableColumn id="5" xr3:uid="{03904506-CB92-4DE6-BC6D-68EF2AF2FCB8}" name="TOTAL" dataDxfId="55" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{03904506-CB92-4DE6-BC6D-68EF2AF2FCB8}" name="TOTAL" dataDxfId="145" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{972B87F8-08DE-42CE-B6EE-F9CC3000B39F}" name="Table6911" displayName="Table6911" ref="G2:L19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{972B87F8-08DE-42CE-B6EE-F9CC3000B39F}" name="Table6911" displayName="Table6911" ref="G2:L19" totalsRowShown="0" headerRowDxfId="100" dataDxfId="98" headerRowBorderDxfId="99" tableBorderDxfId="97" totalsRowBorderDxfId="96">
   <autoFilter ref="G2:L19" xr:uid="{F2C44FDE-4A19-46D1-9037-BD7401012386}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{62D3BE1E-B2F3-4C84-8D8B-61049D765747}" name="DATE" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{34C695C3-27FE-40B3-A88F-C4F5D73CE93A}" name="BUYER" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{61D493C9-2D2C-491E-8FC9-FB8BAF5261D5}" name="QUANTITY" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{03B7775B-1680-479A-95A9-8B2E43A9D4A2}" name="WEIGHT" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5CB8D670-8BAC-48DC-81D9-97676E689543}" name="PRICE" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{11785D43-A212-4ACC-A3FF-334E2A99B630}" name="TOTAL" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{62D3BE1E-B2F3-4C84-8D8B-61049D765747}" name="DATE" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{34C695C3-27FE-40B3-A88F-C4F5D73CE93A}" name="BUYER" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{61D493C9-2D2C-491E-8FC9-FB8BAF5261D5}" name="QUANTITY" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{03B7775B-1680-479A-95A9-8B2E43A9D4A2}" name="WEIGHT" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{5CB8D670-8BAC-48DC-81D9-97676E689543}" name="PRICE" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{11785D43-A212-4ACC-A3FF-334E2A99B630}" name="TOTAL" dataDxfId="90" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{13A6065B-752C-4DFB-A6FF-831BEE151C0E}" name="Table1435681015" displayName="Table1435681015" ref="A2:E19" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+  <autoFilter ref="A2:E19" xr:uid="{09E23765-04E3-4E06-824C-4AD63284734D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C3F99D81-9BBC-4DA1-ADA3-1105367F5AF2}" name="DATE" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{5D79C67F-602E-4BEA-99ED-CF74FD92F242}" name="ITEM" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{69380D8F-339D-44F9-B8B1-268A99E335E9}" name="QUANTITY" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{01A79D73-98DD-446C-92A1-00428F444747}" name="AMOUNT" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{B318428B-3D86-406E-90DC-F492F6DBE0CB}" name="TOTAL" dataDxfId="83" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{AB76EF76-B598-4821-8F26-AFC1B33EE597}" name="Table691116" displayName="Table691116" ref="G2:L19" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79" totalsRowBorderDxfId="78">
+  <autoFilter ref="G2:L19" xr:uid="{C2EE6F30-F7D7-427C-86F9-E18739FC375E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{75D6404D-8F93-46D8-A160-7EFDF5AFD41D}" name="DATE" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{957520B9-BDF3-4C02-8DD7-9865729190CC}" name="BUYER" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{3079DA3F-5CD6-485D-86EA-D4D586995D83}" name="QUANTITY" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{1E49093D-F20A-4BD5-AE66-F5D494939C14}" name="WEIGHT" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{5D527BA6-32B0-40AA-92E2-975A584FA3B2}" name="PRICE" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{BCA1FFC7-8EF3-43D5-8E43-9D3BFD9E6A96}" name="TOTAL" dataDxfId="72" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{51B2DBFE-0255-4BEB-AA41-43A5C5421762}" name="Table143568101512" displayName="Table143568101512" ref="A2:E19" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="A2:E19" xr:uid="{8D253C49-1BE4-41B1-9294-D513E73EC1A9}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{86A41109-9700-44D6-ADC5-E98ED4F40A47}" name="DATE" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{778BBD42-307B-4F47-A5CE-7B2C66B06E68}" name="ITEM" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{39FEE1EE-6DFF-402B-8050-71B70F24A78E}" name="QUANTITY" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{4D913014-3CC3-4FA8-A05D-99378E2EE8D3}" name="AMOUNT" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{03F33448-0537-42F2-BF46-AB613FE775E2}" name="TOTAL" dataDxfId="65" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{95E5514D-581F-4109-8872-832D4B40FD33}" name="Table69111613" displayName="Table69111613" ref="G2:L19" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+  <autoFilter ref="G2:L19" xr:uid="{6E6625A4-D3A7-423C-A670-E323D7B0BFEF}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C22B9E3E-3AFD-4122-B32E-5ADAB9DC30DC}" name="DATE" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{78B8B5A4-D1FF-46C0-978C-9FCABAF59C27}" name="BUYER" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{B1B2801D-B826-45E2-A62C-7A2506691ED6}" name="QUANTITY" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{F1514649-002E-4091-840B-8BB6D252E0A6}" name="WEIGHT" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{7410B058-526A-4C21-8796-03507D3F2F09}" name="PRICE" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{912922E8-4073-4597-A3FE-C71EC0ECC036}" name="TOTAL" dataDxfId="54" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A2858FF2-19ED-4897-A7A4-2D39597F1C05}" name="Table14356810151214" displayName="Table14356810151214" ref="A2:E19" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="A2:E19" xr:uid="{B3B7AB79-E63C-4AA9-80F8-2EEFFF8A9033}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{58ACB5DA-281B-43F2-911E-67FB73FC572A}" name="DATE" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{B73E0B4E-CBB9-4754-909F-D19041E0BE2A}" name="ITEM" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{09D0F7F9-04B4-4475-B106-865686AF6110}" name="QUANTITY" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{BE782E6E-D82E-4BE8-BF05-87C54A9610E9}" name="AMOUNT" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{50F3621E-6DFF-40FC-AC43-1DC9B92DF7A0}" name="TOTAL" dataDxfId="47" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{10882CAC-9732-473F-A753-24821AC93549}" name="Table6911161317" displayName="Table6911161317" ref="G2:L19" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+  <autoFilter ref="G2:L19" xr:uid="{F6CCE5A3-CFFA-463A-9D32-DFECB7120E49}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{955C80D4-6895-4C5A-A6E9-2138998C4BA0}" name="DATE" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{76F3D946-75CA-4707-9A80-7D491EACEC8C}" name="BUYER" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{F900E067-C150-4132-9BF2-16A93C56DEE0}" name="QUANTITY" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{660C926D-9093-483C-9AEF-E46B78484FD7}" name="WEIGHT" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{78C0AEA3-11A1-40ED-9C06-091ACD03D8BE}" name="PRICE" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{37C8AB58-ED7D-4E4B-84CB-53BE5DA0F8E5}" name="TOTAL" dataDxfId="36" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{50F2BF62-EEC9-4AA2-BE1B-DDA29663E2B6}" name="Table1435681015121418" displayName="Table1435681015121418" ref="A2:E19" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A2:E19" xr:uid="{343EB64A-903C-456A-8900-F69C23F70361}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7E8B703C-261F-4739-87ED-E060F702A927}" name="DATE" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{7DD897D4-AD22-48CE-A26F-B64817688FD1}" name="ITEM" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{3998CA49-2E87-45E2-A41C-E6CAF6FA68BB}" name="QUANTITY" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{47615FC7-73C9-4327-AE88-F4051261D5C4}" name="AMOUNT" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{54716515-CF03-446C-B0C4-0BBEC7F7F982}" name="TOTAL" dataDxfId="29" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{B0E39922-FF1A-460D-9E3B-683C9D3F0266}" name="Table691116131719" displayName="Table691116131719" ref="G2:L19" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="G2:L19" xr:uid="{D696E393-60A0-4036-A13F-4F87DB2DC2F0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3ABCA742-8B84-401F-B446-9216ECD99555}" name="DATE" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{46B87E6D-BC1D-44AE-BCD5-69239F5538D2}" name="BUYER" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{F88DAEF8-F4D5-47B6-AB08-921FBBE835E0}" name="QUANTITY" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{851D23C9-B9B7-483A-BB28-ECD4CAC80627}" name="WEIGHT" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{F4D2BBC5-99A3-4199-9121-408A7193E8F0}" name="PRICE" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{01D585F5-2073-4DBD-BF4F-AAB0A0C83ADA}" name="TOTAL" dataDxfId="18" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{7540D664-6D02-453A-991C-363396A7365F}" name="Table143568101512141820" displayName="Table143568101512141820" ref="A2:E19" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A2:E19" xr:uid="{54F30414-C740-4C1C-B497-67B54E6B989B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2FC511E5-736A-4C87-AC42-1B1E2FC8A448}" name="DATE" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{DE168674-0C7D-4B71-B4C0-9D5115F1058D}" name="ITEM" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{ED853AEF-1853-46DA-BFDE-EA5DCD124C01}" name="QUANTITY" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{CAA8D759-C9BF-4AC0-8C0D-502925F340FE}" name="AMOUNT" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{CD900EB9-4437-4ED1-A527-AEDC8F94214F}" name="TOTAL" dataDxfId="11" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F2E3C8B0-6753-433C-87D9-6F90E61D2E39}" name="Table14" displayName="Table14" ref="A1:E18" totalsRowShown="0" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F2E3C8B0-6753-433C-87D9-6F90E61D2E39}" name="Table14" displayName="Table14" ref="A1:E18" totalsRowShown="0" headerRowDxfId="144">
   <autoFilter ref="A1:E18" xr:uid="{55F0C602-EA2B-417B-A8CF-A7506DCFBA0D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9297B9BC-DA1D-4F3B-B8D9-236109551FB2}" name="DATE"/>
     <tableColumn id="2" xr3:uid="{E0897105-BD03-48FA-BC07-BDB98F5CD4EF}" name="ITEM"/>
     <tableColumn id="3" xr3:uid="{4B239615-7D83-4A08-AEF5-098E787BDD37}" name="QUANTITY"/>
     <tableColumn id="4" xr3:uid="{43AE393C-9109-40E2-96BF-EA03BD730635}" name="AMOUNT"/>
-    <tableColumn id="5" xr3:uid="{4DDA5099-C8CC-433B-A8F1-6BD39F1A6698}" name="TOTAL" dataDxfId="53" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{4DDA5099-C8CC-433B-A8F1-6BD39F1A6698}" name="TOTAL" dataDxfId="143" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{A0DDFAFE-D8EE-480B-B048-1C180381D394}" name="Table69111613171921" displayName="Table69111613171921" ref="G2:L19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="G2:L19" xr:uid="{A13BC6A6-59F9-4310-BCCF-8379E9F55AC9}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{33D4AF57-0340-4431-9DF6-597EFA2E0A79}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{24B4CFBB-2985-4262-A685-181FD1BCBB42}" name="BUYER" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B418EA15-C3EA-44B5-BFD9-B00C4DA0569D}" name="QUANTITY" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{B4E4977F-B051-4FE2-B27E-7CCF0D440C74}" name="WEIGHT" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{186FE885-3979-4EB7-A4C5-9CF390B080ED}" name="PRICE" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{EA3AA50B-F92E-47F9-B932-AEAC600CE98A}" name="TOTAL" dataDxfId="0" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04E8CE9B-F972-4D2A-BBD7-A4DA2006C51E}" name="Table143" displayName="Table143" ref="A1:E18" totalsRowShown="0" headerRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04E8CE9B-F972-4D2A-BBD7-A4DA2006C51E}" name="Table143" displayName="Table143" ref="A1:E18" totalsRowShown="0" headerRowDxfId="142">
   <autoFilter ref="A1:E18" xr:uid="{D3179F9C-EC68-4C86-B46A-03A35F523B41}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B3F09B77-3057-458A-BE73-EA008428DB8C}" name="DATE"/>
     <tableColumn id="2" xr3:uid="{106956D3-CD8D-44C2-A4B6-0C9A0654DF97}" name="ITEM"/>
     <tableColumn id="3" xr3:uid="{34EA5D5E-0290-4422-9727-683E0DE92E68}" name="QUANTITY"/>
     <tableColumn id="4" xr3:uid="{127ED9A6-918F-4C03-A8C8-893EABC058FA}" name="AMOUNT"/>
-    <tableColumn id="5" xr3:uid="{405FBE5F-2B2A-4F64-9236-83A7FC5A391B}" name="TOTAL" dataDxfId="51" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{405FBE5F-2B2A-4F64-9236-83A7FC5A391B}" name="TOTAL" dataDxfId="141" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{98C29F74-2B4D-481D-9538-890A8A546785}" name="Table1435" displayName="Table1435" ref="A1:E18" totalsRowShown="0" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{98C29F74-2B4D-481D-9538-890A8A546785}" name="Table1435" displayName="Table1435" ref="A1:E18" totalsRowShown="0" headerRowDxfId="140">
   <autoFilter ref="A1:E18" xr:uid="{DB97B67B-B086-47CF-AF29-723662D1F041}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DE1F3780-C85F-4D89-AE34-AD36A2905711}" name="DATE"/>
     <tableColumn id="2" xr3:uid="{BADD8C48-BD6E-47D5-BCB5-E4B7EA8BEAE2}" name="ITEM"/>
     <tableColumn id="3" xr3:uid="{248E9588-C27F-4BEE-84D3-4CC3E631CB8D}" name="QUANTITY"/>
     <tableColumn id="4" xr3:uid="{316E246C-1A4B-4DDF-99DD-E4506BBAE547}" name="AMOUNT"/>
-    <tableColumn id="5" xr3:uid="{B61C6CFE-F9B6-4B24-9408-D999328281DB}" name="TOTAL" dataDxfId="49" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{B61C6CFE-F9B6-4B24-9408-D999328281DB}" name="TOTAL" dataDxfId="139" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{37B886FE-8561-48CE-9A7F-32ED97B48572}" name="Table14356" displayName="Table14356" ref="A2:E20" totalsRowCount="1" headerRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{37B886FE-8561-48CE-9A7F-32ED97B48572}" name="Table14356" displayName="Table14356" ref="A2:E20" totalsRowCount="1" headerRowDxfId="138">
   <autoFilter ref="A2:E19" xr:uid="{DE330D17-D6CE-4F02-8236-703EFFA50F39}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7BBB255A-CFA5-4EE1-AA18-79A6E05BB7CD}" name="DATE" totalsRowDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{BB4B363B-27FE-4696-83AD-2C8917C2BE68}" name="ITEM" totalsRowDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{8338F136-5CF9-4383-8713-A4E57E8C9493}" name="QUANTITY" totalsRowDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{9ACC634E-24DD-474A-806E-45B22DE04320}" name="AMOUNT" totalsRowDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{09B840F9-6FD7-405E-9168-2AFD50F55E6D}" name="TOTAL" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Currency" totalsRowCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{7BBB255A-CFA5-4EE1-AA18-79A6E05BB7CD}" name="DATE" totalsRowDxfId="137"/>
+    <tableColumn id="2" xr3:uid="{BB4B363B-27FE-4696-83AD-2C8917C2BE68}" name="ITEM" totalsRowDxfId="136"/>
+    <tableColumn id="3" xr3:uid="{8338F136-5CF9-4383-8713-A4E57E8C9493}" name="QUANTITY" totalsRowDxfId="135"/>
+    <tableColumn id="4" xr3:uid="{9ACC634E-24DD-474A-806E-45B22DE04320}" name="AMOUNT" totalsRowDxfId="134"/>
+    <tableColumn id="5" xr3:uid="{09B840F9-6FD7-405E-9168-2AFD50F55E6D}" name="TOTAL" totalsRowFunction="custom" dataDxfId="133" totalsRowDxfId="132" dataCellStyle="Currency" totalsRowCellStyle="Currency">
       <totalsRowFormula>F20/E19 *100</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1807,58 +3428,58 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3942A4A7-7B93-4431-AC5B-B4EC52A1B9FE}" name="Table6" displayName="Table6" ref="G2:L19" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3942A4A7-7B93-4431-AC5B-B4EC52A1B9FE}" name="Table6" displayName="Table6" ref="G2:L19" totalsRowShown="0" headerRowDxfId="131" dataDxfId="129" headerRowBorderDxfId="130" tableBorderDxfId="128" totalsRowBorderDxfId="127">
   <autoFilter ref="G2:L19" xr:uid="{A906474C-0585-43F8-ABD4-8143C7C262EC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{56628592-9640-4DEA-906C-7196A0325A7B}" name="DATE" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{35072D5B-6FF7-4A5B-B9A8-A870DDB43822}" name="BUYER" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{B68C5305-1C8C-483E-8BED-DECA128BD566}" name="QUANTITY" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{C9886B91-DE6C-481D-ACA4-A377FFFFFA4A}" name="WEIGHT" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{DB8366C3-25C2-41CE-A71A-A0DA7B666E41}" name="PRICE" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{BC97CDDA-429A-47A7-9A86-F1A1302C050F}" name="TOTAL" dataDxfId="31" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{56628592-9640-4DEA-906C-7196A0325A7B}" name="DATE" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{35072D5B-6FF7-4A5B-B9A8-A870DDB43822}" name="BUYER" dataDxfId="125"/>
+    <tableColumn id="3" xr3:uid="{B68C5305-1C8C-483E-8BED-DECA128BD566}" name="QUANTITY" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{C9886B91-DE6C-481D-ACA4-A377FFFFFA4A}" name="WEIGHT" dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{DB8366C3-25C2-41CE-A71A-A0DA7B666E41}" name="PRICE" dataDxfId="122"/>
+    <tableColumn id="6" xr3:uid="{BC97CDDA-429A-47A7-9A86-F1A1302C050F}" name="TOTAL" dataDxfId="121" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7E07706C-FB15-40A3-9336-809D6DA8A4EC}" name="Table143568" displayName="Table143568" ref="A2:E19" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7E07706C-FB15-40A3-9336-809D6DA8A4EC}" name="Table143568" displayName="Table143568" ref="A2:E19" totalsRowShown="0" headerRowDxfId="120">
   <autoFilter ref="A2:E19" xr:uid="{0B857FBF-C8DA-4BE7-83A1-D038E42765E6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7446A5EB-4C3A-49B5-9E19-669E9FC3347E}" name="DATE"/>
     <tableColumn id="2" xr3:uid="{44C91CD2-DEDB-4D1C-8FCE-1264A85B9B6F}" name="ITEM"/>
     <tableColumn id="3" xr3:uid="{2E093F03-2F08-4880-AD05-E8914170159D}" name="QUANTITY"/>
     <tableColumn id="4" xr3:uid="{44032675-4211-4DF6-A265-719C7D9C47DE}" name="AMOUNT"/>
-    <tableColumn id="5" xr3:uid="{8FB374B4-5400-4AAB-98F9-A0D0F444C972}" name="TOTAL" dataDxfId="29" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{8FB374B4-5400-4AAB-98F9-A0D0F444C972}" name="TOTAL" dataDxfId="119" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0CA32926-4E99-4424-975A-1EE69DD9BC8B}" name="Table69" displayName="Table69" ref="G2:L19" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0CA32926-4E99-4424-975A-1EE69DD9BC8B}" name="Table69" displayName="Table69" ref="G2:L19" totalsRowShown="0" headerRowDxfId="118" dataDxfId="116" headerRowBorderDxfId="117" tableBorderDxfId="115" totalsRowBorderDxfId="114">
   <autoFilter ref="G2:L19" xr:uid="{E83EB02B-3B60-45AA-A59B-4F1393586237}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F1CEE6EF-3853-44CE-A947-DB59F3138F9B}" name="DATE" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{B5B89E93-8DC9-4FC4-BF88-E279EF418471}" name="BUYER" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{391C6A0E-8B13-4C73-B36C-2C94A6CCAE51}" name="QUANTITY" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{15AB6CCA-B355-475E-859F-08A1DF070B30}" name="WEIGHT" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{248F5698-A238-45E2-94C7-86CC080849E2}" name="PRICE" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{0F36571C-BFAA-4F41-987C-2EF35EB78F8E}" name="TOTAL" dataDxfId="18" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{F1CEE6EF-3853-44CE-A947-DB59F3138F9B}" name="DATE" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{B5B89E93-8DC9-4FC4-BF88-E279EF418471}" name="BUYER" dataDxfId="112"/>
+    <tableColumn id="3" xr3:uid="{391C6A0E-8B13-4C73-B36C-2C94A6CCAE51}" name="QUANTITY" dataDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{15AB6CCA-B355-475E-859F-08A1DF070B30}" name="WEIGHT" dataDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{248F5698-A238-45E2-94C7-86CC080849E2}" name="PRICE" dataDxfId="109"/>
+    <tableColumn id="6" xr3:uid="{0F36571C-BFAA-4F41-987C-2EF35EB78F8E}" name="TOTAL" dataDxfId="108" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A1061985-5B74-4BB6-9C32-4A2C3BFD782F}" name="Table14356810" displayName="Table14356810" ref="A2:E19" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A1061985-5B74-4BB6-9C32-4A2C3BFD782F}" name="Table14356810" displayName="Table14356810" ref="A2:E19" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="A2:E19" xr:uid="{17580A9C-AD3E-418E-B70C-797AC8206200}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B1C20895-1435-4075-A836-42141C6E1358}" name="DATE" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{8EF771A5-96F3-4EF7-B005-A075EB5D4F95}" name="ITEM" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{6846B033-DCD4-464E-9563-A379A099F912}" name="QUANTITY" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{A98A2236-DB21-474F-B11C-209A65722193}" name="AMOUNT" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{DAC30006-1F7E-4841-A1AA-AE0949D2DDC9}" name="TOTAL" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{B1C20895-1435-4075-A836-42141C6E1358}" name="DATE" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{8EF771A5-96F3-4EF7-B005-A075EB5D4F95}" name="ITEM" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{6846B033-DCD4-464E-9563-A379A099F912}" name="QUANTITY" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{A98A2236-DB21-474F-B11C-209A65722193}" name="AMOUNT" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{DAC30006-1F7E-4841-A1AA-AE0949D2DDC9}" name="TOTAL" dataDxfId="101" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2197,14 +3818,14 @@
       <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -2648,6 +4269,2103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344E3CFD-C487-4F60-BB9E-1137B001E128}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.37890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.94921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="41">
+        <v>100</v>
+      </c>
+      <c r="D3" s="44">
+        <v>640</v>
+      </c>
+      <c r="E3" s="7">
+        <f>(C3*D3)</f>
+        <v>64000</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24">
+        <v>30</v>
+      </c>
+      <c r="J3" s="25">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="K3" s="26">
+        <v>3000</v>
+      </c>
+      <c r="L3" s="27">
+        <f>I3*J3*K3</f>
+        <v>134190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="41"/>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="41">
+        <v>11</v>
+      </c>
+      <c r="D4" s="44">
+        <v>19000</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E18" si="0">(C4*D4)</f>
+        <v>209000</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25">
+        <v>27</v>
+      </c>
+      <c r="J4" s="25">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="K4" s="26">
+        <v>3200</v>
+      </c>
+      <c r="L4" s="27">
+        <f t="shared" ref="L4:L18" si="1">I4*J4*K4</f>
+        <v>135129.60000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="41"/>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1</v>
+      </c>
+      <c r="D5" s="44">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25">
+        <v>15</v>
+      </c>
+      <c r="J5" s="25">
+        <v>1.3332999999999999</v>
+      </c>
+      <c r="K5" s="26">
+        <v>3200</v>
+      </c>
+      <c r="L5" s="27">
+        <f t="shared" si="1"/>
+        <v>63998.399999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="41"/>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="41">
+        <v>1</v>
+      </c>
+      <c r="D6" s="44">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25">
+        <v>20</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26">
+        <v>3000</v>
+      </c>
+      <c r="L6" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="41"/>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="44">
+        <v>17250</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="41"/>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="41">
+        <v>1</v>
+      </c>
+      <c r="D8" s="44">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="41"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="5">
+        <f>SUM(E3:E18)</f>
+        <v>277500</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="46">
+        <f>SUM(I3:I18)</f>
+        <v>92</v>
+      </c>
+      <c r="J19" s="46">
+        <f>SUM(J3:J18)</f>
+        <v>4.3883000000000001</v>
+      </c>
+      <c r="K19" s="46"/>
+      <c r="L19" s="31">
+        <f>SUM(L3:L18)</f>
+        <v>333318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="7">
+        <f>E19/C3</f>
+        <v>2775</v>
+      </c>
+      <c r="F20" s="49">
+        <f>L19-E19</f>
+        <v>55818</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E21">
+        <f>F20/E19</f>
+        <v>0.20114594594594595</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C89645D-F880-4CE1-910C-A4006111BDDD}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.37890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.94921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.90234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="41">
+        <v>100</v>
+      </c>
+      <c r="D3" s="44">
+        <v>970</v>
+      </c>
+      <c r="E3" s="7">
+        <f>(C3*D3)</f>
+        <v>97000</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24">
+        <v>35</v>
+      </c>
+      <c r="J3" s="25">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K3" s="26">
+        <v>2900</v>
+      </c>
+      <c r="L3" s="27">
+        <f>I3*J3*K3</f>
+        <v>116725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="41"/>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="41">
+        <v>10.5</v>
+      </c>
+      <c r="D4" s="44">
+        <v>19000</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E18" si="0">(C4*D4)</f>
+        <v>199500</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25">
+        <v>15</v>
+      </c>
+      <c r="J4" s="25">
+        <v>1.43</v>
+      </c>
+      <c r="K4" s="26">
+        <v>2900</v>
+      </c>
+      <c r="L4" s="27">
+        <f t="shared" ref="L4:L18" si="1">I4*J4*K4</f>
+        <v>62205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="41"/>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1</v>
+      </c>
+      <c r="D5" s="44">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25">
+        <v>2</v>
+      </c>
+      <c r="J5" s="25">
+        <v>2</v>
+      </c>
+      <c r="K5" s="26">
+        <v>3000</v>
+      </c>
+      <c r="L5" s="27">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="41"/>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="41">
+        <v>1</v>
+      </c>
+      <c r="D6" s="44">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25">
+        <v>31</v>
+      </c>
+      <c r="J6" s="25">
+        <v>1.69</v>
+      </c>
+      <c r="K6" s="26">
+        <v>2850</v>
+      </c>
+      <c r="L6" s="27">
+        <f t="shared" si="1"/>
+        <v>149311.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="41"/>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="44">
+        <v>17250</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25">
+        <v>2</v>
+      </c>
+      <c r="J7" s="25">
+        <v>2</v>
+      </c>
+      <c r="K7" s="26">
+        <v>2750</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" si="1"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="41"/>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="41">
+        <v>2</v>
+      </c>
+      <c r="D8" s="44">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25">
+        <v>9</v>
+      </c>
+      <c r="J8" s="25">
+        <v>1</v>
+      </c>
+      <c r="K8" s="26">
+        <v>5700</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="1"/>
+        <v>51300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="41"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="5">
+        <f>SUM(E3:E18)</f>
+        <v>302000</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="46">
+        <f>SUM(I3:I18)</f>
+        <v>94</v>
+      </c>
+      <c r="J19" s="46">
+        <f>SUM(J3:J18)</f>
+        <v>9.27</v>
+      </c>
+      <c r="K19" s="46"/>
+      <c r="L19" s="31">
+        <f>SUM(L3:L18)</f>
+        <v>402541.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="7">
+        <f>E19/C3</f>
+        <v>3020</v>
+      </c>
+      <c r="F20" s="49">
+        <f>L19-E19</f>
+        <v>100541.5</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374E8A50-1247-4B77-86D6-235BECA067A2}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.37890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.94921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="43">
+        <v>45450</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="41">
+        <v>150</v>
+      </c>
+      <c r="D3" s="44">
+        <v>750</v>
+      </c>
+      <c r="E3" s="7">
+        <f>(C3*D3)</f>
+        <v>112500</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="41"/>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="41">
+        <v>8</v>
+      </c>
+      <c r="D4" s="44">
+        <v>20100</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E18" si="0">(C4*D4)</f>
+        <v>160800</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="41"/>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1</v>
+      </c>
+      <c r="D5" s="44">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="41"/>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="41">
+        <v>1</v>
+      </c>
+      <c r="D6" s="44">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27">
+        <f t="shared" ref="L6:L18" si="1">I6*J6*K6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="41"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="41"/>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="44">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="41"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="5">
+        <f>SUM(E3:E18)</f>
+        <v>277800</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="46">
+        <f>SUM(I3:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="46">
+        <f>SUM(J3:J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="46"/>
+      <c r="L19" s="31">
+        <f>SUM(L3:L18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="7">
+        <f>E19/C3</f>
+        <v>1852</v>
+      </c>
+      <c r="F20" s="49">
+        <f>L19-E19</f>
+        <v>-277800</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+    </row>
+    <row r="22" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A22" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+      <c r="A33" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="52">
+        <f>SUM(B23:B32)</f>
+        <v>146200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283B2920-08B1-4FF2-AF8B-D87AB3D09BCA}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.37890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.94921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.09375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="43">
+        <v>45450</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="41">
+        <v>100</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="7">
+        <f>(C3*D3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="41"/>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E18" si="0">(C4*D4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="41"/>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1</v>
+      </c>
+      <c r="D5" s="44">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="41"/>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="41">
+        <v>1</v>
+      </c>
+      <c r="D6" s="44">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27">
+        <f t="shared" ref="L6:L18" si="1">I6*J6*K6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="41"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="41"/>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="44">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="41"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="5">
+        <f>SUM(E3:E18)</f>
+        <v>4500</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="46">
+        <f>SUM(I3:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="46">
+        <f>SUM(J3:J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="46"/>
+      <c r="L19" s="31">
+        <f>SUM(L3:L18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="7">
+        <f>E19/C3</f>
+        <v>45</v>
+      </c>
+      <c r="F20" s="49">
+        <f>L19-E19</f>
+        <v>-4500</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
@@ -2788,14 +6506,14 @@
       <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -3225,14 +6943,14 @@
       <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -3642,14 +7360,14 @@
       <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="22">
@@ -4054,21 +7772,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="G1" s="55" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="G1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" ht="24.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -4482,21 +8200,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="G1" s="55" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="G1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" ht="28.2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -4908,8 +8626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7E0C7E-8651-4EFA-98FC-246B2B283C06}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -4930,21 +8648,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="G1" s="55" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="G1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
@@ -4983,7 +8701,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="43">
-        <v>45048</v>
+        <v>45414</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -5001,15 +8719,17 @@
       <c r="G3" s="23"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24">
-        <v>23</v>
-      </c>
-      <c r="J3" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="J3" s="25">
+        <v>16</v>
+      </c>
       <c r="K3" s="26">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L3" s="27">
         <f>(J3*K3)</f>
-        <v>0</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -5017,27 +8737,29 @@
         <v>15</v>
       </c>
       <c r="C4" s="41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="44">
-        <v>16000</v>
+        <v>16600</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" ref="E4:E18" si="0">PRODUCT(C4:D4)</f>
-        <v>128000</v>
+        <v>116200</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="24"/>
       <c r="I4" s="25">
-        <v>10</v>
-      </c>
-      <c r="J4" s="25"/>
+        <v>18</v>
+      </c>
+      <c r="J4" s="25">
+        <v>31.25</v>
+      </c>
       <c r="K4" s="26">
-        <v>2750</v>
+        <v>2900</v>
       </c>
       <c r="L4" s="27">
         <f t="shared" ref="L4:L17" si="1">(J4*K4)</f>
-        <v>0</v>
+        <v>90625</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -5057,15 +8779,17 @@
       <c r="G5" s="28"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25">
-        <v>16</v>
-      </c>
-      <c r="J5" s="25"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="25">
+        <v>10</v>
+      </c>
       <c r="K5" s="26">
-        <v>2200</v>
+        <v>6000</v>
       </c>
       <c r="L5" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -5084,12 +8808,18 @@
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
+      <c r="I6" s="25">
+        <v>4</v>
+      </c>
+      <c r="J6" s="25">
+        <v>5.99</v>
+      </c>
+      <c r="K6" s="26">
+        <v>2900</v>
+      </c>
       <c r="L6" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17371</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -5101,6 +8831,466 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25">
+        <v>6</v>
+      </c>
+      <c r="J7" s="25">
+        <v>3</v>
+      </c>
+      <c r="K7" s="26">
+        <v>5500</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" si="1"/>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="2"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25">
+        <v>3</v>
+      </c>
+      <c r="J8" s="25">
+        <v>3</v>
+      </c>
+      <c r="K8" s="26">
+        <v>5000</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D9" s="44"/>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="2"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D11" s="44"/>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D12" s="44"/>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D13" s="44"/>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="5:12" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="E19" s="5">
+        <f>SUM(E3:E18)</f>
+        <v>157200</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="46">
+        <f>SUM(I3:I18)</f>
+        <v>49</v>
+      </c>
+      <c r="J19" s="46">
+        <f>SUM(J3:J18)</f>
+        <v>69.240000000000009</v>
+      </c>
+      <c r="K19" s="46"/>
+      <c r="L19" s="31">
+        <f>SUM(L3:L18)</f>
+        <v>247496</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="E20" s="7">
+        <f>E19/C3</f>
+        <v>3144</v>
+      </c>
+      <c r="F20" s="49">
+        <f>L19-E19</f>
+        <v>90296</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE5BC82-958F-42E9-A2EA-B2AC3886260A}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.37890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.94921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.09375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="41">
+        <v>80</v>
+      </c>
+      <c r="D3" s="44">
+        <v>740</v>
+      </c>
+      <c r="E3" s="7">
+        <f>PRODUCT(C3:D3)</f>
+        <v>59200</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24">
+        <v>10</v>
+      </c>
+      <c r="J3" s="25">
+        <v>1.8197000000000001</v>
+      </c>
+      <c r="K3" s="26">
+        <v>3050</v>
+      </c>
+      <c r="L3" s="27">
+        <f>I3*J3*K3</f>
+        <v>55500.850000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="41"/>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="41">
+        <v>2</v>
+      </c>
+      <c r="D4" s="44">
+        <v>19000</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E18" si="0">PRODUCT(C4:D4)</f>
+        <v>38000</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25">
+        <v>21</v>
+      </c>
+      <c r="J4" s="25">
+        <v>1.69</v>
+      </c>
+      <c r="K4" s="26">
+        <v>3050</v>
+      </c>
+      <c r="L4" s="27">
+        <f t="shared" ref="L4:L18" si="1">I4*J4*K4</f>
+        <v>108244.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="41"/>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1</v>
+      </c>
+      <c r="D5" s="44">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25">
+        <v>23</v>
+      </c>
+      <c r="J5" s="25">
+        <v>1.573</v>
+      </c>
+      <c r="K5" s="26">
+        <v>3050</v>
+      </c>
+      <c r="L5" s="27">
+        <f t="shared" si="1"/>
+        <v>110345.95000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="41"/>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="41">
+        <v>1</v>
+      </c>
+      <c r="D6" s="44">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25">
+        <v>10</v>
+      </c>
+      <c r="J6" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="K6" s="26">
+        <v>3050</v>
+      </c>
+      <c r="L6" s="27">
+        <f t="shared" si="1"/>
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="41"/>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="41">
+        <v>9</v>
+      </c>
+      <c r="D7" s="44">
+        <v>17250</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>155250</v>
+      </c>
+      <c r="F7" s="41"/>
       <c r="G7" s="28"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
@@ -5112,12 +9302,21 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="2"/>
-      <c r="D8" s="44"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="41">
+        <v>4</v>
+      </c>
+      <c r="D8" s="44">
+        <v>500</v>
+      </c>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="F8" s="41"/>
       <c r="G8" s="28"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -5129,11 +9328,15 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="44"/>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F9" s="41"/>
       <c r="G9" s="28"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
@@ -5145,12 +9348,15 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="41"/>
       <c r="B10" s="2"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="44"/>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F10" s="41"/>
       <c r="G10" s="28"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
@@ -5162,11 +9368,15 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="44"/>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F11" s="41"/>
       <c r="G11" s="28"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
@@ -5178,11 +9388,15 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="44"/>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F12" s="41"/>
       <c r="G12" s="28"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
@@ -5194,11 +9408,15 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="44"/>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F13" s="41"/>
       <c r="G13" s="28"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
@@ -5210,10 +9428,15 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F14" s="41"/>
       <c r="G14" s="28"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -5225,10 +9448,15 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F15" s="41"/>
       <c r="G15" s="28"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
@@ -5240,10 +9468,15 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F16" s="41"/>
       <c r="G16" s="28"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -5254,11 +9487,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F17" s="41"/>
       <c r="G17" s="28"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
@@ -5269,47 +9507,106 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F18" s="41"/>
       <c r="G18" s="45"/>
       <c r="H18" s="46"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="34"/>
-    </row>
-    <row r="19" spans="5:12" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="L18" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="5">
         <f>SUM(E3:E18)</f>
-        <v>169000</v>
-      </c>
+        <v>257950</v>
+      </c>
+      <c r="F19" s="41"/>
       <c r="G19" s="47"/>
       <c r="H19" s="48"/>
       <c r="I19" s="46">
         <f>SUM(I3:I18)</f>
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="J19" s="46">
         <f>SUM(J3:J18)</f>
-        <v>0</v>
+        <v>6.5827</v>
       </c>
       <c r="K19" s="46"/>
       <c r="L19" s="31">
         <f>SUM(L3:L18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" ht="19.8" x14ac:dyDescent="0.45">
+        <v>319841.30000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="7">
         <f>E19/C3</f>
-        <v>3380</v>
+        <v>3224.375</v>
       </c>
       <c r="F20" s="49">
         <f>L19-E19</f>
-        <v>-169000</v>
+        <v>61891.300000000047</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+    </row>
+    <row r="22" spans="1:12" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="J22" s="51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="50">
+        <f>0.25*E19</f>
+        <v>64487.5</v>
+      </c>
+      <c r="J23" s="50">
+        <f>78000-I23</f>
+        <v>13512.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="50">
+        <f>0.25*F20</f>
+        <v>15472.825000000012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="50">
+        <f>I23+I24</f>
+        <v>79960.325000000012</v>
       </c>
     </row>
   </sheetData>

--- a/B/itzgoing-WPS Office.xlsx
+++ b/B/itzgoing-WPS Office.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\zero_day\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839BDB6F-9A45-4204-887F-541B7E61F098}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5587E6-C94B-4847-9C93-D573B41E795C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7956" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7956" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22 nov 22" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="68">
   <si>
     <t>DATE</t>
   </si>
@@ -231,6 +231,12 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>old devider repair and tapolin</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
 </sst>
 </file>
 
@@ -241,7 +247,7 @@
     <numFmt numFmtId="164" formatCode="_-[$₦-46A]* #,##0.00_-;\-[$₦-46A]* #,##0.00_-;_-[$₦-46A]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$₦-466]\ * #,##0.00_-;\-[$₦-466]\ * #,##0.00_-;_-[$₦-466]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -314,8 +320,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,8 +366,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -588,14 +607,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,8 +814,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -4799,7 +4838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C89645D-F880-4CE1-910C-A4006111BDDD}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -5325,10 +5364,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374E8A50-1247-4B77-86D6-235BECA067A2}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -5339,7 +5378,7 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5234375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.09375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.94921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.76171875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.76171875" bestFit="1" customWidth="1"/>
@@ -5421,10 +5460,17 @@
       <c r="F3" s="41"/>
       <c r="G3" s="23"/>
       <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="I3" s="24">
+        <v>150</v>
+      </c>
       <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
+      <c r="K3" s="26">
+        <v>2800</v>
+      </c>
+      <c r="L3" s="27">
+        <f>I3*J3*K3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="41"/>
@@ -5432,14 +5478,14 @@
         <v>15</v>
       </c>
       <c r="C4" s="41">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4" s="44">
         <v>20100</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" ref="E4:E18" si="0">(C4*D4)</f>
-        <v>160800</v>
+        <v>321600</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="23"/>
@@ -5447,7 +5493,10 @@
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
+      <c r="L4" s="27">
+        <f t="shared" ref="L4:L8" si="1">I4*J4*K4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="41"/>
@@ -5455,14 +5504,14 @@
         <v>34</v>
       </c>
       <c r="C5" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="44">
         <v>2500</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="F5" s="41"/>
       <c r="G5" s="28"/>
@@ -5470,7 +5519,10 @@
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
+      <c r="L5" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="41"/>
@@ -5494,15 +5546,21 @@
       <c r="J6" s="25"/>
       <c r="K6" s="26"/>
       <c r="L6" s="27">
-        <f t="shared" ref="L6:L18" si="1">I6*J6*K6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="41"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="41">
+        <v>0</v>
+      </c>
+      <c r="D7" s="44">
+        <v>21000</v>
+      </c>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5523,13 +5581,15 @@
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="41">
+        <v>1</v>
+      </c>
       <c r="D8" s="44">
         <v>1000</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="28"/>
@@ -5558,7 +5618,7 @@
       <c r="J9" s="25"/>
       <c r="K9" s="26"/>
       <c r="L9" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L9:L18" si="2">I9*J9*K9</f>
         <v>0</v>
       </c>
     </row>
@@ -5578,7 +5638,7 @@
       <c r="J10" s="25"/>
       <c r="K10" s="26"/>
       <c r="L10" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5598,7 +5658,7 @@
       <c r="J11" s="25"/>
       <c r="K11" s="26"/>
       <c r="L11" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5618,7 +5678,7 @@
       <c r="J12" s="25"/>
       <c r="K12" s="26"/>
       <c r="L12" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5638,7 +5698,7 @@
       <c r="J13" s="25"/>
       <c r="K13" s="26"/>
       <c r="L13" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5658,7 +5718,7 @@
       <c r="J14" s="25"/>
       <c r="K14" s="26"/>
       <c r="L14" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5678,7 +5738,7 @@
       <c r="J15" s="25"/>
       <c r="K15" s="26"/>
       <c r="L15" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5698,7 +5758,7 @@
       <c r="J16" s="25"/>
       <c r="K16" s="26"/>
       <c r="L16" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5718,7 +5778,7 @@
       <c r="J17" s="25"/>
       <c r="K17" s="26"/>
       <c r="L17" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5738,7 +5798,7 @@
       <c r="J18" s="25"/>
       <c r="K18" s="26"/>
       <c r="L18" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5749,14 +5809,14 @@
       <c r="D19" s="41"/>
       <c r="E19" s="5">
         <f>SUM(E3:E18)</f>
-        <v>277800</v>
+        <v>442100</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="47"/>
       <c r="H19" s="48"/>
       <c r="I19" s="46">
         <f>SUM(I3:I18)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J19" s="46">
         <f>SUM(J3:J18)</f>
@@ -5775,11 +5835,11 @@
       <c r="D20" s="41"/>
       <c r="E20" s="7">
         <f>E19/C3</f>
-        <v>1852</v>
+        <v>2947.3333333333335</v>
       </c>
       <c r="F20" s="49">
         <f>L19-E19</f>
-        <v>-277800</v>
+        <v>-442100</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
@@ -5794,6 +5854,9 @@
       </c>
       <c r="B22" s="60"/>
       <c r="C22" s="60"/>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
@@ -5802,6 +5865,9 @@
       <c r="B23">
         <v>20000</v>
       </c>
+      <c r="F23">
+        <v>100000</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
@@ -5810,6 +5876,9 @@
       <c r="B24">
         <v>5000</v>
       </c>
+      <c r="F24">
+        <v>40000</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
@@ -5818,13 +5887,24 @@
       <c r="B25">
         <v>15000</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="F25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>57</v>
       </c>
       <c r="B26">
         <v>39000</v>
+      </c>
+      <c r="F26" s="61">
+        <f>SUM(F23:F25)</f>
+        <v>160000</v>
+      </c>
+      <c r="G26" s="50">
+        <f>E19-F26</f>
+        <v>282100</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
@@ -5869,19 +5949,27 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>63</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="A33" s="52" t="s">
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+      <c r="A34" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="52">
-        <f>SUM(B23:B32)</f>
-        <v>146200</v>
+      <c r="B34" s="52">
+        <f>SUM(B23:B33)</f>
+        <v>171200</v>
       </c>
     </row>
   </sheetData>
@@ -5904,7 +5992,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>

--- a/B/itzgoing-WPS Office.xlsx
+++ b/B/itzgoing-WPS Office.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\zero_day\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5587E6-C94B-4847-9C93-D573B41E795C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F301DC08-6CDB-4E38-A55D-63CDFA546D48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7956" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7956" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22 nov 22" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,14 @@
     <sheet name="4 APR 2024" sheetId="10" r:id="rId10"/>
     <sheet name="25 APR 2024" sheetId="12" r:id="rId11"/>
     <sheet name="7 MAY 2024" sheetId="11" r:id="rId12"/>
-    <sheet name="28 MAY 2024" sheetId="13" r:id="rId13"/>
+    <sheet name="12 JULY 2024" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="69">
   <si>
     <t>DATE</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>debt</t>
+  </si>
+  <si>
+    <t>mum</t>
   </si>
 </sst>
 </file>
@@ -790,6 +793,9 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,9 +819,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3857,14 +3860,14 @@
       <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -4338,22 +4341,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="41"/>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
@@ -4859,22 +4862,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="41"/>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
@@ -5366,8 +5369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374E8A50-1247-4B77-86D6-235BECA067A2}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -5381,28 +5384,28 @@
     <col min="7" max="7" width="12.09375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.94921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.76171875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.76171875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.046875" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="41"/>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
@@ -5461,15 +5464,17 @@
       <c r="G3" s="23"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24">
-        <v>150</v>
-      </c>
-      <c r="J3" s="25"/>
+        <v>22</v>
+      </c>
+      <c r="J3" s="25">
+        <v>1.6667000000000001</v>
+      </c>
       <c r="K3" s="26">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L3" s="27">
         <f>I3*J3*K3</f>
-        <v>0</v>
+        <v>110002.2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -5478,24 +5483,30 @@
         <v>15</v>
       </c>
       <c r="C4" s="41">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" s="44">
         <v>20100</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" ref="E4:E18" si="0">(C4*D4)</f>
-        <v>321600</v>
+        <v>402000</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="23"/>
       <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26"/>
+      <c r="I4" s="25">
+        <v>15</v>
+      </c>
+      <c r="J4" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="K4" s="26">
+        <v>3000</v>
+      </c>
       <c r="L4" s="27">
         <f t="shared" ref="L4:L8" si="1">I4*J4*K4</f>
-        <v>0</v>
+        <v>67500</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -5516,12 +5527,18 @@
       <c r="F5" s="41"/>
       <c r="G5" s="28"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
+      <c r="I5" s="25">
+        <v>29</v>
+      </c>
+      <c r="J5" s="25">
+        <v>1.4666699999999999</v>
+      </c>
+      <c r="K5" s="26">
+        <v>3000</v>
+      </c>
       <c r="L5" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>127600.29</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -5542,12 +5559,18 @@
       <c r="F6" s="41"/>
       <c r="G6" s="28"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
+      <c r="I6" s="25">
+        <v>26</v>
+      </c>
+      <c r="J6" s="25">
+        <v>1.35</v>
+      </c>
+      <c r="K6" s="26">
+        <v>2800</v>
+      </c>
       <c r="L6" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>98280</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -5568,12 +5591,18 @@
       <c r="F7" s="41"/>
       <c r="G7" s="28"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
+      <c r="I7" s="25">
+        <v>12</v>
+      </c>
+      <c r="J7" s="25">
+        <v>1.6333</v>
+      </c>
+      <c r="K7" s="26">
+        <v>2850</v>
+      </c>
       <c r="L7" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55858.859999999993</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
@@ -5594,12 +5623,18 @@
       <c r="F8" s="41"/>
       <c r="G8" s="28"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
+      <c r="I8" s="25">
+        <v>4</v>
+      </c>
+      <c r="J8" s="25">
+        <v>2</v>
+      </c>
+      <c r="K8" s="26">
+        <v>3000</v>
+      </c>
       <c r="L8" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -5614,12 +5649,18 @@
       <c r="F9" s="41"/>
       <c r="G9" s="28"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
+      <c r="I9" s="25">
+        <v>8</v>
+      </c>
+      <c r="J9" s="25">
+        <v>1.55</v>
+      </c>
+      <c r="K9" s="26">
+        <v>3000</v>
+      </c>
       <c r="L9" s="27">
         <f t="shared" ref="L9:L18" si="2">I9*J9*K9</f>
-        <v>0</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -5634,12 +5675,18 @@
       <c r="F10" s="41"/>
       <c r="G10" s="28"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
+      <c r="I10" s="25">
+        <v>18</v>
+      </c>
+      <c r="J10" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="K10" s="26">
+        <v>2850</v>
+      </c>
       <c r="L10" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>76950</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -5654,12 +5701,18 @@
       <c r="F11" s="41"/>
       <c r="G11" s="28"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="25">
+        <v>11</v>
+      </c>
+      <c r="J11" s="25">
+        <v>1.4</v>
+      </c>
+      <c r="K11" s="26">
+        <v>2850</v>
+      </c>
       <c r="L11" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>43889.999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -5809,23 +5862,23 @@
       <c r="D19" s="41"/>
       <c r="E19" s="5">
         <f>SUM(E3:E18)</f>
-        <v>442100</v>
+        <v>522500</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="47"/>
       <c r="H19" s="48"/>
       <c r="I19" s="46">
         <f>SUM(I3:I18)</f>
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J19" s="46">
         <f>SUM(J3:J18)</f>
-        <v>0</v>
+        <v>14.066670000000002</v>
       </c>
       <c r="K19" s="46"/>
       <c r="L19" s="31">
         <f>SUM(L3:L18)</f>
-        <v>0</v>
+        <v>641281.35</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="19.8" x14ac:dyDescent="0.45">
@@ -5835,11 +5888,11 @@
       <c r="D20" s="41"/>
       <c r="E20" s="7">
         <f>E19/C3</f>
-        <v>2947.3333333333335</v>
+        <v>3483.3333333333335</v>
       </c>
       <c r="F20" s="49">
         <f>L19-E19</f>
-        <v>-442100</v>
+        <v>118781.34999999998</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
@@ -5848,12 +5901,18 @@
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
     </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E21">
+        <f>F20/E19</f>
+        <v>0.22733272727272724</v>
+      </c>
+    </row>
     <row r="22" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
       <c r="F22" t="s">
         <v>67</v>
       </c>
@@ -5866,7 +5925,7 @@
         <v>20000</v>
       </c>
       <c r="F23">
-        <v>100000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
@@ -5877,7 +5936,7 @@
         <v>5000</v>
       </c>
       <c r="F24">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
@@ -5888,7 +5947,7 @@
         <v>15000</v>
       </c>
       <c r="F25">
-        <v>20000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.45">
@@ -5898,14 +5957,15 @@
       <c r="B26">
         <v>39000</v>
       </c>
-      <c r="F26" s="61">
+      <c r="F26" s="53">
         <f>SUM(F23:F25)</f>
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="G26" s="50">
         <f>E19-F26</f>
-        <v>282100</v>
-      </c>
+        <v>292500</v>
+      </c>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
@@ -5989,10 +6049,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283B2920-08B1-4FF2-AF8B-D87AB3D09BCA}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -6007,27 +6067,27 @@
     <col min="8" max="8" width="8.94921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.76171875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.76171875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.09375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="41"/>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
@@ -6073,12 +6133,14 @@
         <v>14</v>
       </c>
       <c r="C3" s="41">
-        <v>100</v>
-      </c>
-      <c r="D3" s="44"/>
+        <v>120</v>
+      </c>
+      <c r="D3" s="44">
+        <v>600</v>
+      </c>
       <c r="E3" s="7">
         <f>(C3*D3)</f>
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="23"/>
@@ -6086,18 +6148,25 @@
       <c r="I3" s="24"/>
       <c r="J3" s="25"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
+      <c r="L3" s="27">
+        <f t="shared" ref="L3:L7" si="0">I3*J3*K3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="41"/>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="44"/>
+      <c r="C4" s="41">
+        <v>3</v>
+      </c>
+      <c r="D4" s="44">
+        <v>23500</v>
+      </c>
       <c r="E4" s="7">
-        <f t="shared" ref="E4:E18" si="0">(C4*D4)</f>
-        <v>0</v>
+        <f t="shared" ref="E4:E18" si="1">(C4*D4)</f>
+        <v>70500</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="23"/>
@@ -6105,7 +6174,10 @@
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
+      <c r="L4" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="41"/>
@@ -6119,7 +6191,7 @@
         <v>2500</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="F5" s="41"/>
@@ -6128,7 +6200,10 @@
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
+      <c r="L5" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="41"/>
@@ -6139,11 +6214,11 @@
         <v>1</v>
       </c>
       <c r="D6" s="44">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>2000</v>
+        <f t="shared" si="1"/>
+        <v>4000</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="28"/>
@@ -6152,18 +6227,22 @@
       <c r="J6" s="25"/>
       <c r="K6" s="26"/>
       <c r="L6" s="27">
-        <f t="shared" ref="L6:L18" si="1">I6*J6*K6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="41"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="44"/>
+      <c r="C7" s="41">
+        <v>4</v>
+      </c>
+      <c r="D7" s="44">
+        <v>24500</v>
+      </c>
       <c r="E7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>98000</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="28"/>
@@ -6172,7 +6251,7 @@
       <c r="J7" s="25"/>
       <c r="K7" s="26"/>
       <c r="L7" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6186,7 +6265,7 @@
         <v>1000</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8" s="41"/>
@@ -6196,7 +6275,7 @@
       <c r="J8" s="25"/>
       <c r="K8" s="26"/>
       <c r="L8" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L6:L18" si="2">I8*J8*K8</f>
         <v>0</v>
       </c>
     </row>
@@ -6204,9 +6283,11 @@
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
-      <c r="D9" s="44"/>
+      <c r="D9" s="44">
+        <v>25000</v>
+      </c>
       <c r="E9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9" s="41"/>
@@ -6216,7 +6297,7 @@
       <c r="J9" s="25"/>
       <c r="K9" s="26"/>
       <c r="L9" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6224,11 +6305,10 @@
       <c r="A10" s="41"/>
       <c r="B10" s="2"/>
       <c r="C10" s="41"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D10" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="41"/>
       <c r="G10" s="28"/>
       <c r="H10" s="25"/>
@@ -6236,17 +6316,19 @@
       <c r="J10" s="25"/>
       <c r="K10" s="26"/>
       <c r="L10" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
+      <c r="B11" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="C11" s="41"/>
       <c r="D11" s="44"/>
       <c r="E11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11" s="41"/>
@@ -6256,7 +6338,7 @@
       <c r="J11" s="25"/>
       <c r="K11" s="26"/>
       <c r="L11" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6266,7 +6348,7 @@
       <c r="C12" s="41"/>
       <c r="D12" s="44"/>
       <c r="E12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F12" s="41"/>
@@ -6276,7 +6358,7 @@
       <c r="J12" s="25"/>
       <c r="K12" s="26"/>
       <c r="L12" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6286,7 +6368,7 @@
       <c r="C13" s="41"/>
       <c r="D13" s="44"/>
       <c r="E13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13" s="41"/>
@@ -6296,7 +6378,7 @@
       <c r="J13" s="25"/>
       <c r="K13" s="26"/>
       <c r="L13" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6306,7 +6388,7 @@
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
       <c r="E14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F14" s="41"/>
@@ -6316,7 +6398,7 @@
       <c r="J14" s="25"/>
       <c r="K14" s="26"/>
       <c r="L14" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6326,7 +6408,7 @@
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
       <c r="E15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15" s="41"/>
@@ -6336,7 +6418,7 @@
       <c r="J15" s="25"/>
       <c r="K15" s="26"/>
       <c r="L15" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6346,7 +6428,7 @@
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
       <c r="E16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16" s="41"/>
@@ -6356,7 +6438,7 @@
       <c r="J16" s="25"/>
       <c r="K16" s="26"/>
       <c r="L16" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6366,7 +6448,7 @@
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
       <c r="E17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F17" s="41"/>
@@ -6376,7 +6458,7 @@
       <c r="J17" s="25"/>
       <c r="K17" s="26"/>
       <c r="L17" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6386,7 +6468,7 @@
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
       <c r="E18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F18" s="41"/>
@@ -6396,7 +6478,7 @@
       <c r="J18" s="25"/>
       <c r="K18" s="26"/>
       <c r="L18" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6407,7 +6489,7 @@
       <c r="D19" s="41"/>
       <c r="E19" s="5">
         <f>SUM(E3:E18)</f>
-        <v>4500</v>
+        <v>247000</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="47"/>
@@ -6433,11 +6515,11 @@
       <c r="D20" s="41"/>
       <c r="E20" s="7">
         <f>E19/C3</f>
-        <v>45</v>
+        <v>2058.3333333333335</v>
       </c>
       <c r="F20" s="49">
         <f>L19-E19</f>
-        <v>-4500</v>
+        <v>-247000</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
@@ -6445,6 +6527,16 @@
       <c r="J20" s="41"/>
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H24">
+        <v>1350000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6594,14 +6686,14 @@
       <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -7031,14 +7123,14 @@
       <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -7448,14 +7540,14 @@
       <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="22">
@@ -7860,21 +7952,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="G1" s="58" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="G1" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" ht="24.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -8288,21 +8380,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="G1" s="58" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="G1" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" ht="28.2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -8736,21 +8828,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="G1" s="58" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="G1" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
@@ -9180,22 +9272,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="41"/>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">

--- a/B/itzgoing-WPS Office.xlsx
+++ b/B/itzgoing-WPS Office.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\zero_day\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F301DC08-6CDB-4E38-A55D-63CDFA546D48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA05EED-C6D4-4EB6-8ECC-38AB55D0AAB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7956" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6049,10 +6049,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283B2920-08B1-4FF2-AF8B-D87AB3D09BCA}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -6275,20 +6275,22 @@
       <c r="J8" s="25"/>
       <c r="K8" s="26"/>
       <c r="L8" s="27">
-        <f t="shared" ref="L6:L18" si="2">I8*J8*K8</f>
+        <f t="shared" ref="L8:L18" si="2">I8*J8*K8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
+      <c r="C9" s="41">
+        <v>5</v>
+      </c>
       <c r="D9" s="44">
         <v>25000</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>125000</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="28"/>
@@ -6489,7 +6491,7 @@
       <c r="D19" s="41"/>
       <c r="E19" s="5">
         <f>SUM(E3:E18)</f>
-        <v>247000</v>
+        <v>372000</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="47"/>
@@ -6515,11 +6517,11 @@
       <c r="D20" s="41"/>
       <c r="E20" s="7">
         <f>E19/C3</f>
-        <v>2058.3333333333335</v>
+        <v>3100</v>
       </c>
       <c r="F20" s="49">
         <f>L19-E19</f>
-        <v>-247000</v>
+        <v>-372000</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
@@ -6534,8 +6536,21 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D24">
+        <v>50</v>
+      </c>
       <c r="H24">
         <v>1350000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D26">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
